--- a/1_ExampleFormat_Input1.xlsx
+++ b/1_ExampleFormat_Input1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ColorToolVinhTrinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinht\Dropbox\ColorToolVT2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82649EF1-844D-46FA-A560-AB5A286F801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5576002-5AAA-4B9D-A1B6-1FB5FC127274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{99837D3B-3479-475A-9F30-032604C8171D}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>1_Glühlampe</t>
-  </si>
-  <si>
-    <t>3_LL_WW</t>
   </si>
   <si>
     <t>4_LL_KW</t>
@@ -488,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57F9611-F1E3-4A57-B2BC-1070FA74D6EE}">
-  <dimension ref="A1:E402"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="18.1796875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,14 +509,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>380</v>
       </c>
@@ -527,16 +521,13 @@
         <v>2.910887E-3</v>
       </c>
       <c r="C2" s="7">
-        <v>3.56342E-4</v>
-      </c>
-      <c r="D2" s="7">
         <v>2.797838E-3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6">
         <v>3.5404065999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>381</v>
       </c>
@@ -544,16 +535,13 @@
         <v>3.1000509999999999E-3</v>
       </c>
       <c r="C3" s="7">
-        <v>3.1910400000000001E-4</v>
-      </c>
-      <c r="D3" s="7">
         <v>2.9274209999999999E-3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6">
         <v>3.6673452000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>382</v>
       </c>
@@ -561,16 +549,13 @@
         <v>3.2548719999999998E-3</v>
       </c>
       <c r="C4" s="7">
-        <v>3.3619699999999999E-4</v>
-      </c>
-      <c r="D4" s="7">
         <v>3.0923930000000001E-3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6">
         <v>3.5826470999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>383</v>
       </c>
@@ -578,16 +563,13 @@
         <v>3.473931E-3</v>
       </c>
       <c r="C5" s="7">
-        <v>3.2190000000000002E-4</v>
-      </c>
-      <c r="D5" s="7">
         <v>3.097004E-3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6">
         <v>3.6437514999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>384</v>
       </c>
@@ -595,16 +577,13 @@
         <v>3.7002979999999999E-3</v>
       </c>
       <c r="C6" s="7">
-        <v>2.8909900000000002E-4</v>
-      </c>
-      <c r="D6" s="7">
         <v>3.1469860000000001E-3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6">
         <v>4.1243709000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>385</v>
       </c>
@@ -612,16 +591,13 @@
         <v>3.954015E-3</v>
       </c>
       <c r="C7" s="7">
-        <v>2.5738699999999998E-4</v>
-      </c>
-      <c r="D7" s="7">
         <v>3.1864139999999998E-3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="D7" s="6">
         <v>4.8215951999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>386</v>
       </c>
@@ -629,16 +605,13 @@
         <v>4.2199899999999999E-3</v>
       </c>
       <c r="C8" s="7">
-        <v>2.6018599999999998E-4</v>
-      </c>
-      <c r="D8" s="7">
         <v>3.259938E-3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6">
         <v>5.4186496000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>387</v>
       </c>
@@ -646,16 +619,13 @@
         <v>4.3652969999999998E-3</v>
       </c>
       <c r="C9" s="7">
-        <v>2.4973900000000002E-4</v>
-      </c>
-      <c r="D9" s="7">
         <v>3.3260529999999998E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="D9" s="6">
         <v>5.8150039000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>388</v>
       </c>
@@ -663,16 +633,13 @@
         <v>4.6606160000000002E-3</v>
       </c>
       <c r="C10" s="7">
-        <v>2.8984699999999998E-4</v>
-      </c>
-      <c r="D10" s="7">
         <v>3.4590939999999998E-3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D10" s="6">
         <v>6.4919715000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>389</v>
       </c>
@@ -680,16 +647,13 @@
         <v>4.939532E-3</v>
       </c>
       <c r="C11" s="7">
-        <v>3.7353499999999998E-4</v>
-      </c>
-      <c r="D11" s="7">
         <v>3.6146659999999999E-3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="6">
         <v>7.4512638000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>390</v>
       </c>
@@ -697,16 +661,13 @@
         <v>5.1459210000000003E-3</v>
       </c>
       <c r="C12" s="7">
-        <v>4.6269799999999999E-4</v>
-      </c>
-      <c r="D12" s="7">
         <v>3.8284669999999999E-3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6">
         <v>8.4391433000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>391</v>
       </c>
@@ -714,16 +675,13 @@
         <v>5.4609610000000003E-3</v>
       </c>
       <c r="C13" s="7">
-        <v>5.3892199999999995E-4</v>
-      </c>
-      <c r="D13" s="7">
         <v>4.0268719999999999E-3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="D13" s="6">
         <v>9.0881802999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>392</v>
       </c>
@@ -731,16 +689,13 @@
         <v>5.8039729999999996E-3</v>
       </c>
       <c r="C14" s="7">
-        <v>5.4776200000000003E-4</v>
-      </c>
-      <c r="D14" s="7">
         <v>4.1574259999999997E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="D14" s="6">
         <v>8.6372480000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>393</v>
       </c>
@@ -748,16 +703,13 @@
         <v>6.1162789999999996E-3</v>
       </c>
       <c r="C15" s="7">
-        <v>6.05271E-4</v>
-      </c>
-      <c r="D15" s="7">
         <v>4.2601990000000001E-3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="D15" s="6">
         <v>8.1738274E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>394</v>
       </c>
@@ -765,16 +717,13 @@
         <v>6.4154800000000003E-3</v>
       </c>
       <c r="C16" s="7">
-        <v>6.6221100000000001E-4</v>
-      </c>
-      <c r="D16" s="7">
         <v>4.3410899999999997E-3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="D16" s="6">
         <v>8.8092407999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>395</v>
       </c>
@@ -782,16 +731,13 @@
         <v>6.8662640000000004E-3</v>
       </c>
       <c r="C17" s="7">
-        <v>6.9647299999999997E-4</v>
-      </c>
-      <c r="D17" s="7">
         <v>4.5687929999999998E-3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="D17" s="6">
         <v>0.103684602</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>396</v>
       </c>
@@ -799,16 +745,13 @@
         <v>7.2545650000000001E-3</v>
       </c>
       <c r="C18" s="7">
-        <v>7.3070000000000003E-4</v>
-      </c>
-      <c r="D18" s="7">
         <v>4.7374979999999997E-3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D18" s="6">
         <v>0.109765796</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>397</v>
       </c>
@@ -816,16 +759,13 @@
         <v>7.6376509999999996E-3</v>
       </c>
       <c r="C19" s="7">
-        <v>7.6553099999999996E-4</v>
-      </c>
-      <c r="D19" s="7">
         <v>4.9388519999999997E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="D19" s="6">
         <v>0.119548879</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>398</v>
       </c>
@@ -833,16 +773,13 @@
         <v>8.0590049999999993E-3</v>
       </c>
       <c r="C20" s="7">
-        <v>8.0066899999999995E-4</v>
-      </c>
-      <c r="D20" s="7">
         <v>5.1425899999999998E-3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="D20" s="6">
         <v>0.15059873500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>399</v>
       </c>
@@ -850,16 +787,13 @@
         <v>8.5460199999999997E-3</v>
       </c>
       <c r="C21" s="7">
-        <v>8.6706800000000003E-4</v>
-      </c>
-      <c r="D21" s="7">
         <v>5.4371150000000002E-3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D21" s="6">
         <v>0.18627047399999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>400</v>
       </c>
@@ -867,16 +801,13 @@
         <v>9.1177879999999999E-3</v>
       </c>
       <c r="C22" s="7">
-        <v>9.74073E-4</v>
-      </c>
-      <c r="D22" s="7">
         <v>5.8797609999999998E-3</v>
       </c>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
         <v>0.21449552199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>401</v>
       </c>
@@ -884,16 +815,13 @@
         <v>9.7283979999999992E-3</v>
       </c>
       <c r="C23" s="7">
-        <v>1.6866839999999999E-3</v>
-      </c>
-      <c r="D23" s="7">
         <v>7.1305429999999996E-3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
         <v>0.237000291</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>402</v>
       </c>
@@ -901,16 +829,13 @@
         <v>1.0320008E-2</v>
       </c>
       <c r="C24" s="7">
-        <v>5.9095759999999997E-3</v>
-      </c>
-      <c r="D24" s="7">
         <v>1.3026362999999999E-2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="D24" s="6">
         <v>0.25620300299999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>403</v>
       </c>
@@ -918,16 +843,13 @@
         <v>1.0962395999999999E-2</v>
       </c>
       <c r="C25" s="7">
-        <v>3.4060865000000003E-2</v>
-      </c>
-      <c r="D25" s="7">
         <v>5.0394969999999997E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="D25" s="6">
         <v>0.26944571899999997</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>404</v>
       </c>
@@ -935,16 +857,13 @@
         <v>1.169396E-2</v>
       </c>
       <c r="C26" s="7">
-        <v>7.5963717E-2</v>
-      </c>
-      <c r="D26" s="7">
         <v>0.106020435</v>
       </c>
-      <c r="E26" s="6">
+      <c r="D26" s="6">
         <v>0.28245147100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>405</v>
       </c>
@@ -952,16 +871,13 @@
         <v>1.2456195999999999E-2</v>
       </c>
       <c r="C27" s="7">
-        <v>8.5115471999999998E-2</v>
-      </c>
-      <c r="D27" s="7">
         <v>0.11875414300000001</v>
       </c>
-      <c r="E27" s="6">
+      <c r="D27" s="6">
         <v>0.29522291299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>406</v>
       </c>
@@ -969,16 +885,13 @@
         <v>1.3277884E-2</v>
       </c>
       <c r="C28" s="7">
-        <v>4.8909066000000001E-2</v>
-      </c>
-      <c r="D28" s="7">
         <v>7.0926409999999995E-2</v>
       </c>
-      <c r="E28" s="6">
+      <c r="D28" s="6">
         <v>0.30958370099999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>407</v>
       </c>
@@ -986,16 +899,13 @@
         <v>1.4247127E-2</v>
       </c>
       <c r="C29" s="7">
-        <v>1.6961687E-2</v>
-      </c>
-      <c r="D29" s="7">
         <v>2.8017381000000001E-2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="D29" s="6">
         <v>0.333137972</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>408</v>
       </c>
@@ -1003,16 +913,13 @@
         <v>1.5307362E-2</v>
       </c>
       <c r="C30" s="7">
-        <v>1.1633441E-2</v>
-      </c>
-      <c r="D30" s="7">
         <v>2.1629625999999999E-2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="D30" s="6">
         <v>0.36416046099999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>409</v>
       </c>
@@ -1020,16 +927,13 @@
         <v>1.6349993E-2</v>
       </c>
       <c r="C31" s="7">
-        <v>7.1470029999999999E-3</v>
-      </c>
-      <c r="D31" s="7">
         <v>1.7670538999999999E-2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="D31" s="6">
         <v>0.38605636599999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>410</v>
       </c>
@@ -1037,16 +941,13 @@
         <v>1.7418897999999999E-2</v>
       </c>
       <c r="C32" s="7">
-        <v>2.451983E-3</v>
-      </c>
-      <c r="D32" s="7">
         <v>1.3945941999999999E-2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="D32" s="6">
         <v>0.40749801000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>411</v>
       </c>
@@ -1054,16 +955,13 @@
         <v>1.8461476000000001E-2</v>
       </c>
       <c r="C33" s="7">
-        <v>1.532765E-3</v>
-      </c>
-      <c r="D33" s="7">
         <v>1.4140854E-2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="D33" s="6">
         <v>0.43888459499999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>412</v>
       </c>
@@ -1071,16 +969,13 @@
         <v>1.9645172999999998E-2</v>
       </c>
       <c r="C34" s="7">
-        <v>1.4409780000000001E-3</v>
-      </c>
-      <c r="D34" s="7">
         <v>1.5365500000000001E-2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="D34" s="6">
         <v>0.475781018</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>413</v>
       </c>
@@ -1088,16 +983,13 @@
         <v>2.0875044999999998E-2</v>
       </c>
       <c r="C35" s="7">
-        <v>1.4804270000000001E-3</v>
-      </c>
-      <c r="D35" s="7">
         <v>1.6829335000000001E-2</v>
       </c>
-      <c r="E35" s="6">
+      <c r="D35" s="6">
         <v>0.50080558500000005</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>414</v>
       </c>
@@ -1105,16 +997,13 @@
         <v>2.1985658000000002E-2</v>
       </c>
       <c r="C36" s="7">
-        <v>1.645545E-3</v>
-      </c>
-      <c r="D36" s="7">
         <v>1.8410203E-2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="D36" s="6">
         <v>0.52049512799999997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>415</v>
       </c>
@@ -1122,16 +1011,13 @@
         <v>2.3151122E-2</v>
       </c>
       <c r="C37" s="7">
-        <v>1.686746E-3</v>
-      </c>
-      <c r="D37" s="7">
         <v>2.0067598999999998E-2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="D37" s="6">
         <v>0.54385699399999998</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>416</v>
       </c>
@@ -1139,16 +1025,13 @@
         <v>2.4346804999999999E-2</v>
       </c>
       <c r="C38" s="7">
-        <v>1.6258819999999999E-3</v>
-      </c>
-      <c r="D38" s="7">
         <v>2.1690489E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="D38" s="6">
         <v>0.56399049800000001</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>417</v>
       </c>
@@ -1156,16 +1039,13 @@
         <v>2.5459283999999999E-2</v>
       </c>
       <c r="C39" s="7">
-        <v>1.546132E-3</v>
-      </c>
-      <c r="D39" s="7">
         <v>2.3394677999999999E-2</v>
       </c>
-      <c r="E39" s="6">
+      <c r="D39" s="6">
         <v>0.57310335599999995</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>418</v>
       </c>
@@ -1173,16 +1053,13 @@
         <v>2.6387014E-2</v>
       </c>
       <c r="C40" s="7">
-        <v>1.5179690000000001E-3</v>
-      </c>
-      <c r="D40" s="7">
         <v>2.5319174E-2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="D40" s="6">
         <v>0.57913352600000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>419</v>
       </c>
@@ -1190,16 +1067,13 @@
         <v>2.7531805999999999E-2</v>
       </c>
       <c r="C41" s="7">
-        <v>1.4709619999999999E-3</v>
-      </c>
-      <c r="D41" s="7">
         <v>2.7561492E-2</v>
       </c>
-      <c r="E41" s="6">
+      <c r="D41" s="6">
         <v>0.59327394700000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>420</v>
       </c>
@@ -1207,16 +1081,13 @@
         <v>2.8680302000000001E-2</v>
       </c>
       <c r="C42" s="7">
-        <v>1.4978820000000001E-3</v>
-      </c>
-      <c r="D42" s="7">
         <v>2.9645089999999999E-2</v>
       </c>
-      <c r="E42" s="6">
+      <c r="D42" s="6">
         <v>0.61263072600000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>421</v>
       </c>
@@ -1224,16 +1095,13 @@
         <v>2.9718482000000001E-2</v>
       </c>
       <c r="C43" s="7">
-        <v>1.6307680000000001E-3</v>
-      </c>
-      <c r="D43" s="7">
         <v>3.2170994000000001E-2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="D43" s="6">
         <v>0.62894642300000003</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>422</v>
       </c>
@@ -1241,16 +1109,13 @@
         <v>3.0544882999999998E-2</v>
       </c>
       <c r="C44" s="7">
-        <v>1.807534E-3</v>
-      </c>
-      <c r="D44" s="7">
         <v>3.4598880999999998E-2</v>
       </c>
-      <c r="E44" s="6">
+      <c r="D44" s="6">
         <v>0.63093783400000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>423</v>
       </c>
@@ -1258,16 +1123,13 @@
         <v>3.1524674000000003E-2</v>
       </c>
       <c r="C45" s="7">
-        <v>2.0501899999999999E-3</v>
-      </c>
-      <c r="D45" s="7">
         <v>3.7217139000000003E-2</v>
       </c>
-      <c r="E45" s="6">
+      <c r="D45" s="6">
         <v>0.630889162</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>424</v>
       </c>
@@ -1275,16 +1137,13 @@
         <v>3.2501885000000001E-2</v>
       </c>
       <c r="C46" s="7">
-        <v>2.2546419999999998E-3</v>
-      </c>
-      <c r="D46" s="7">
         <v>3.9772254E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="D46" s="6">
         <v>0.63834786799999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>425</v>
       </c>
@@ -1292,16 +1151,13 @@
         <v>3.3231272999999999E-2</v>
       </c>
       <c r="C47" s="7">
-        <v>2.4627709999999999E-3</v>
-      </c>
-      <c r="D47" s="7">
         <v>4.2237173000000003E-2</v>
       </c>
-      <c r="E47" s="6">
+      <c r="D47" s="6">
         <v>0.64339843500000005</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>426</v>
       </c>
@@ -1309,16 +1165,13 @@
         <v>3.4150205000000003E-2</v>
       </c>
       <c r="C48" s="7">
-        <v>2.6977329999999999E-3</v>
-      </c>
-      <c r="D48" s="7">
         <v>4.4901716000000001E-2</v>
       </c>
-      <c r="E48" s="6">
+      <c r="D48" s="6">
         <v>0.64348247199999997</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>427</v>
       </c>
@@ -1326,16 +1179,13 @@
         <v>3.5094997000000003E-2</v>
       </c>
       <c r="C49" s="7">
-        <v>2.8159999999999999E-3</v>
-      </c>
-      <c r="D49" s="7">
         <v>4.7520879000000002E-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="D49" s="6">
         <v>0.63931109200000003</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>428</v>
       </c>
@@ -1343,16 +1193,13 @@
         <v>3.5979799E-2</v>
       </c>
       <c r="C50" s="7">
-        <v>2.8705509999999998E-3</v>
-      </c>
-      <c r="D50" s="7">
         <v>4.9872606999999999E-2</v>
       </c>
-      <c r="E50" s="6">
+      <c r="D50" s="6">
         <v>0.62674778900000006</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>429</v>
       </c>
@@ -1360,16 +1207,13 @@
         <v>3.6876463999999998E-2</v>
       </c>
       <c r="C51" s="7">
-        <v>2.9641730000000001E-3</v>
-      </c>
-      <c r="D51" s="7">
         <v>5.2290441E-2</v>
       </c>
-      <c r="E51" s="6">
+      <c r="D51" s="6">
         <v>0.59130038799999995</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>430</v>
       </c>
@@ -1377,16 +1221,13 @@
         <v>3.7923797000000002E-2</v>
       </c>
       <c r="C52" s="7">
-        <v>3.1180029999999998E-3</v>
-      </c>
-      <c r="D52" s="7">
         <v>5.4931136999999998E-2</v>
       </c>
-      <c r="E52" s="6">
+      <c r="D52" s="6">
         <v>0.57073032300000004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>431</v>
       </c>
@@ -1394,16 +1235,13 @@
         <v>3.8739094000000002E-2</v>
       </c>
       <c r="C53" s="7">
-        <v>3.3622090000000001E-3</v>
-      </c>
-      <c r="D53" s="7">
         <v>5.7751811E-2</v>
       </c>
-      <c r="E53" s="6">
+      <c r="D53" s="6">
         <v>0.59106857700000004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>432</v>
       </c>
@@ -1411,16 +1249,13 @@
         <v>3.9588427000000002E-2</v>
       </c>
       <c r="C54" s="7">
-        <v>4.7898109999999997E-3</v>
-      </c>
-      <c r="D54" s="7">
         <v>6.2032175000000002E-2</v>
       </c>
-      <c r="E54" s="6">
+      <c r="D54" s="6">
         <v>0.650537323</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>433</v>
       </c>
@@ -1428,16 +1263,13 @@
         <v>4.0509112E-2</v>
       </c>
       <c r="C55" s="7">
-        <v>2.2932761999999999E-2</v>
-      </c>
-      <c r="D55" s="7">
         <v>9.2537752000000001E-2</v>
       </c>
-      <c r="E55" s="6">
+      <c r="D55" s="6">
         <v>0.68375616400000006</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>434</v>
       </c>
@@ -1445,16 +1277,13 @@
         <v>4.1564107000000003E-2</v>
       </c>
       <c r="C56" s="7">
-        <v>0.10879831199999999</v>
-      </c>
-      <c r="D56" s="7">
         <v>0.23308205900000001</v>
       </c>
-      <c r="E56" s="6">
+      <c r="D56" s="6">
         <v>0.69746840799999998</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>435</v>
       </c>
@@ -1462,16 +1291,13 @@
         <v>4.2506560999999998E-2</v>
       </c>
       <c r="C57" s="7">
-        <v>0.278693937</v>
-      </c>
-      <c r="D57" s="7">
         <v>0.51005425699999996</v>
       </c>
-      <c r="E57" s="6">
+      <c r="D57" s="6">
         <v>0.72296798600000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>436</v>
       </c>
@@ -1479,16 +1305,13 @@
         <v>4.3290272999999997E-2</v>
       </c>
       <c r="C58" s="7">
-        <v>0.34003823999999999</v>
-      </c>
-      <c r="D58" s="7">
         <v>0.61264105999999996</v>
       </c>
-      <c r="E58" s="6">
+      <c r="D58" s="6">
         <v>0.74728048199999997</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>437</v>
       </c>
@@ -1496,16 +1319,13 @@
         <v>4.4319517000000003E-2</v>
       </c>
       <c r="C59" s="7">
-        <v>0.20624287099999999</v>
-      </c>
-      <c r="D59" s="7">
         <v>0.40039863599999997</v>
       </c>
-      <c r="E59" s="6">
+      <c r="D59" s="6">
         <v>0.74651945200000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>438</v>
       </c>
@@ -1513,16 +1333,13 @@
         <v>4.5310389E-2</v>
       </c>
       <c r="C60" s="7">
-        <v>5.9475262000000001E-2</v>
-      </c>
-      <c r="D60" s="7">
         <v>0.16422252800000001</v>
       </c>
-      <c r="E60" s="6">
+      <c r="D60" s="6">
         <v>0.73210474199999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>439</v>
       </c>
@@ -1530,16 +1347,13 @@
         <v>4.6251929999999997E-2</v>
       </c>
       <c r="C61" s="7">
-        <v>8.2509820000000005E-3</v>
-      </c>
-      <c r="D61" s="7">
         <v>8.2428656000000003E-2</v>
       </c>
-      <c r="E61" s="6">
+      <c r="D61" s="6">
         <v>0.731537145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>440</v>
       </c>
@@ -1547,16 +1361,13 @@
         <v>4.7220118999999998E-2</v>
       </c>
       <c r="C62" s="7">
-        <v>3.7448189999999999E-3</v>
-      </c>
-      <c r="D62" s="7">
         <v>7.6798559000000002E-2</v>
       </c>
-      <c r="E62" s="6">
+      <c r="D62" s="6">
         <v>0.75513907700000005</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>441</v>
       </c>
@@ -1564,16 +1375,13 @@
         <v>4.8254291999999997E-2</v>
       </c>
       <c r="C63" s="7">
-        <v>3.0341270000000002E-3</v>
-      </c>
-      <c r="D63" s="7">
         <v>7.7416438000000004E-2</v>
       </c>
-      <c r="E63" s="6">
+      <c r="D63" s="6">
         <v>0.78885278199999997</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>442</v>
       </c>
@@ -1581,16 +1389,13 @@
         <v>4.9267147999999997E-2</v>
       </c>
       <c r="C64" s="7">
-        <v>2.6252379999999998E-3</v>
-      </c>
-      <c r="D64" s="7">
         <v>7.8416288000000001E-2</v>
       </c>
-      <c r="E64" s="6">
+      <c r="D64" s="6">
         <v>0.81641682599999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>443</v>
       </c>
@@ -1598,16 +1403,13 @@
         <v>5.0305927E-2</v>
       </c>
       <c r="C65" s="7">
-        <v>2.2285870000000002E-3</v>
-      </c>
-      <c r="D65" s="7">
         <v>7.9508092000000002E-2</v>
       </c>
-      <c r="E65" s="6">
+      <c r="D65" s="6">
         <v>0.83005962799999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>444</v>
       </c>
@@ -1615,16 +1417,13 @@
         <v>5.1374708999999998E-2</v>
       </c>
       <c r="C66" s="7">
-        <v>1.95272E-3</v>
-      </c>
-      <c r="D66" s="7">
         <v>8.0433567999999997E-2</v>
       </c>
-      <c r="E66" s="6">
+      <c r="D66" s="6">
         <v>0.83432640199999997</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>445</v>
       </c>
@@ -1632,16 +1431,13 @@
         <v>5.2317624E-2</v>
       </c>
       <c r="C67" s="7">
-        <v>1.819392E-3</v>
-      </c>
-      <c r="D67" s="7">
         <v>8.1560634000000007E-2</v>
       </c>
-      <c r="E67" s="6">
+      <c r="D67" s="6">
         <v>0.82897398300000003</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>446</v>
       </c>
@@ -1649,16 +1445,13 @@
         <v>5.3585776000000002E-2</v>
       </c>
       <c r="C68" s="7">
-        <v>1.8345099999999999E-3</v>
-      </c>
-      <c r="D68" s="7">
         <v>8.3063661999999996E-2</v>
       </c>
-      <c r="E68" s="6">
+      <c r="D68" s="6">
         <v>0.83955212400000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>447</v>
       </c>
@@ -1666,16 +1459,13 @@
         <v>5.4702750000000001E-2</v>
       </c>
       <c r="C69" s="7">
-        <v>1.81778E-3</v>
-      </c>
-      <c r="D69" s="7">
         <v>8.4285229000000003E-2</v>
       </c>
-      <c r="E69" s="6">
+      <c r="D69" s="6">
         <v>0.86026250100000001</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>448</v>
       </c>
@@ -1683,16 +1473,13 @@
         <v>5.5768048000000001E-2</v>
       </c>
       <c r="C70" s="7">
-        <v>1.788869E-3</v>
-      </c>
-      <c r="D70" s="7">
         <v>8.5294747000000004E-2</v>
       </c>
-      <c r="E70" s="6">
+      <c r="D70" s="6">
         <v>0.88447265500000005</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>449</v>
       </c>
@@ -1700,16 +1487,13 @@
         <v>5.6893591E-2</v>
       </c>
       <c r="C71" s="7">
-        <v>1.790338E-3</v>
-      </c>
-      <c r="D71" s="7">
         <v>8.6406840999999998E-2</v>
       </c>
-      <c r="E71" s="6">
+      <c r="D71" s="6">
         <v>0.90803319599999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>450</v>
       </c>
@@ -1717,16 +1501,13 @@
         <v>5.8080110999999997E-2</v>
       </c>
       <c r="C72" s="7">
-        <v>1.845513E-3</v>
-      </c>
-      <c r="D72" s="7">
         <v>8.7336808000000002E-2</v>
       </c>
-      <c r="E72" s="6">
+      <c r="D72" s="6">
         <v>0.93083362000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>451</v>
       </c>
@@ -1734,16 +1515,13 @@
         <v>5.9209858999999997E-2</v>
       </c>
       <c r="C73" s="7">
-        <v>1.8711750000000001E-3</v>
-      </c>
-      <c r="D73" s="7">
         <v>8.8310113999999995E-2</v>
       </c>
-      <c r="E73" s="6">
+      <c r="D73" s="6">
         <v>0.934712985</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>452</v>
       </c>
@@ -1751,16 +1529,13 @@
         <v>6.0162466999999997E-2</v>
       </c>
       <c r="C74" s="7">
-        <v>1.8932770000000001E-3</v>
-      </c>
-      <c r="D74" s="7">
         <v>8.8902444999999997E-2</v>
       </c>
-      <c r="E74" s="6">
+      <c r="D74" s="6">
         <v>0.91870380900000004</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>453</v>
       </c>
@@ -1768,16 +1543,13 @@
         <v>6.1430423999999997E-2</v>
       </c>
       <c r="C75" s="7">
-        <v>1.9395040000000001E-3</v>
-      </c>
-      <c r="D75" s="7">
         <v>8.9563742000000002E-2</v>
       </c>
-      <c r="E75" s="6">
+      <c r="D75" s="6">
         <v>0.90627297299999998</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>454</v>
       </c>
@@ -1785,16 +1557,13 @@
         <v>6.2712435999999996E-2</v>
       </c>
       <c r="C76" s="7">
-        <v>1.864653E-3</v>
-      </c>
-      <c r="D76" s="7">
         <v>9.0190507000000003E-2</v>
       </c>
-      <c r="E76" s="6">
+      <c r="D76" s="6">
         <v>0.91063805099999995</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>455</v>
       </c>
@@ -1802,16 +1571,13 @@
         <v>6.3858208999999999E-2</v>
       </c>
       <c r="C77" s="7">
-        <v>1.8258269999999999E-3</v>
-      </c>
-      <c r="D77" s="7">
         <v>9.0060071000000005E-2</v>
       </c>
-      <c r="E77" s="6">
+      <c r="D77" s="6">
         <v>0.92515267000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>456</v>
       </c>
@@ -1819,16 +1585,13 @@
         <v>6.4976198999999998E-2</v>
       </c>
       <c r="C78" s="7">
-        <v>1.831114E-3</v>
-      </c>
-      <c r="D78" s="7">
         <v>9.0362181999999999E-2</v>
       </c>
-      <c r="E78" s="6">
+      <c r="D78" s="6">
         <v>0.93926534299999997</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>457</v>
       </c>
@@ -1836,16 +1599,13 @@
         <v>6.6281949000000007E-2</v>
       </c>
       <c r="C79" s="7">
-        <v>1.7927430000000001E-3</v>
-      </c>
-      <c r="D79" s="7">
         <v>9.1012738999999995E-2</v>
       </c>
-      <c r="E79" s="6">
+      <c r="D79" s="6">
         <v>0.94702587299999996</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>458</v>
       </c>
@@ -1853,16 +1613,13 @@
         <v>6.7428137999999999E-2</v>
       </c>
       <c r="C80" s="7">
-        <v>1.752193E-3</v>
-      </c>
-      <c r="D80" s="7">
         <v>9.1284976000000004E-2</v>
       </c>
-      <c r="E80" s="6">
+      <c r="D80" s="6">
         <v>0.94385520099999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>459</v>
       </c>
@@ -1870,16 +1627,13 @@
         <v>6.8677592999999995E-2</v>
       </c>
       <c r="C81" s="7">
-        <v>1.707126E-3</v>
-      </c>
-      <c r="D81" s="7">
         <v>9.1112242999999996E-2</v>
       </c>
-      <c r="E81" s="6">
+      <c r="D81" s="6">
         <v>0.93866781300000002</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>460</v>
       </c>
@@ -1887,16 +1641,13 @@
         <v>6.9921520000000001E-2</v>
       </c>
       <c r="C82" s="7">
-        <v>1.715931E-3</v>
-      </c>
-      <c r="D82" s="7">
         <v>9.1178502999999994E-2</v>
       </c>
-      <c r="E82" s="6">
+      <c r="D82" s="6">
         <v>0.94837492000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>461</v>
       </c>
@@ -1904,16 +1655,13 @@
         <v>7.1158861000000004E-2</v>
       </c>
       <c r="C83" s="7">
-        <v>1.7491900000000001E-3</v>
-      </c>
-      <c r="D83" s="7">
         <v>9.1048599999999993E-2</v>
       </c>
-      <c r="E83" s="6">
+      <c r="D83" s="6">
         <v>0.96214354700000004</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>462</v>
       </c>
@@ -1921,16 +1669,13 @@
         <v>7.2407095000000005E-2</v>
       </c>
       <c r="C84" s="7">
-        <v>1.818973E-3</v>
-      </c>
-      <c r="D84" s="7">
         <v>9.0631779999999995E-2</v>
       </c>
-      <c r="E84" s="6">
+      <c r="D84" s="6">
         <v>0.96742163800000003</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>463</v>
       </c>
@@ -1938,16 +1683,13 @@
         <v>7.3826359999999994E-2</v>
       </c>
       <c r="C85" s="7">
-        <v>1.9854159999999998E-3</v>
-      </c>
-      <c r="D85" s="7">
         <v>9.0857420999999994E-2</v>
       </c>
-      <c r="E85" s="6">
+      <c r="D85" s="6">
         <v>0.96831218900000005</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>464</v>
       </c>
@@ -1955,16 +1697,13 @@
         <v>7.5076808999999994E-2</v>
       </c>
       <c r="C86" s="7">
-        <v>2.3634989999999998E-3</v>
-      </c>
-      <c r="D86" s="7">
         <v>9.0526234999999997E-2</v>
       </c>
-      <c r="E86" s="6">
+      <c r="D86" s="6">
         <v>0.95964403399999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>465</v>
       </c>
@@ -1972,16 +1711,13 @@
         <v>7.6553358000000002E-2</v>
       </c>
       <c r="C87" s="7">
-        <v>2.6731459999999999E-3</v>
-      </c>
-      <c r="D87" s="7">
         <v>9.0581573999999998E-2</v>
       </c>
-      <c r="E87" s="6">
+      <c r="D87" s="6">
         <v>0.95487616500000005</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>466</v>
       </c>
@@ -1989,16 +1725,13 @@
         <v>7.7751192999999996E-2</v>
       </c>
       <c r="C88" s="7">
-        <v>2.9802800000000001E-3</v>
-      </c>
-      <c r="D88" s="7">
         <v>9.0371718000000004E-2</v>
       </c>
-      <c r="E88" s="6">
+      <c r="D88" s="6">
         <v>0.94975089000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>467</v>
       </c>
@@ -2006,16 +1739,13 @@
         <v>7.9194086999999996E-2</v>
       </c>
       <c r="C89" s="7">
-        <v>3.1007909999999999E-3</v>
-      </c>
-      <c r="D89" s="7">
         <v>9.0130788000000003E-2</v>
       </c>
-      <c r="E89" s="6">
+      <c r="D89" s="6">
         <v>0.94956992799999995</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>468</v>
       </c>
@@ -2023,16 +1753,13 @@
         <v>8.0354459000000003E-2</v>
       </c>
       <c r="C90" s="7">
-        <v>2.7858829999999998E-3</v>
-      </c>
-      <c r="D90" s="7">
         <v>8.9538440999999996E-2</v>
       </c>
-      <c r="E90" s="6">
+      <c r="D90" s="6">
         <v>0.95105086500000002</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>469</v>
       </c>
@@ -2040,16 +1767,13 @@
         <v>8.1783882000000002E-2</v>
       </c>
       <c r="C91" s="7">
-        <v>2.2669740000000002E-3</v>
-      </c>
-      <c r="D91" s="7">
         <v>8.9093049999999993E-2</v>
       </c>
-      <c r="E91" s="6">
+      <c r="D91" s="6">
         <v>0.95015957600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>470</v>
       </c>
@@ -2057,16 +1781,13 @@
         <v>8.3289087999999997E-2</v>
       </c>
       <c r="C92" s="7">
-        <v>2.1326560000000001E-3</v>
-      </c>
-      <c r="D92" s="7">
         <v>8.8582093000000001E-2</v>
       </c>
-      <c r="E92" s="6">
+      <c r="D92" s="6">
         <v>0.94920334699999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>471</v>
       </c>
@@ -2074,16 +1795,13 @@
         <v>8.4706325999999998E-2</v>
       </c>
       <c r="C93" s="7">
-        <v>2.3056679999999999E-3</v>
-      </c>
-      <c r="D93" s="7">
         <v>8.8106886999999995E-2</v>
       </c>
-      <c r="E93" s="6">
+      <c r="D93" s="6">
         <v>0.95662703900000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>472</v>
       </c>
@@ -2091,16 +1809,13 @@
         <v>8.6101791999999996E-2</v>
       </c>
       <c r="C94" s="7">
-        <v>2.5876369999999998E-3</v>
-      </c>
-      <c r="D94" s="7">
         <v>8.7750982000000005E-2</v>
       </c>
-      <c r="E94" s="6">
+      <c r="D94" s="6">
         <v>0.96652123899999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>473</v>
       </c>
@@ -2108,16 +1823,13 @@
         <v>8.7533667999999995E-2</v>
       </c>
       <c r="C95" s="7">
-        <v>2.727798E-3</v>
-      </c>
-      <c r="D95" s="7">
         <v>8.7250453000000006E-2</v>
       </c>
-      <c r="E95" s="6">
+      <c r="D95" s="6">
         <v>0.97413150599999998</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>474</v>
       </c>
@@ -2125,16 +1837,13 @@
         <v>8.8987713999999996E-2</v>
       </c>
       <c r="C96" s="7">
-        <v>2.7104680000000002E-3</v>
-      </c>
-      <c r="D96" s="7">
         <v>8.6580176999999994E-2</v>
       </c>
-      <c r="E96" s="6">
+      <c r="D96" s="6">
         <v>0.97508139299999996</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>475</v>
       </c>
@@ -2142,16 +1851,13 @@
         <v>9.0338723999999995E-2</v>
       </c>
       <c r="C97" s="7">
-        <v>2.5654219999999999E-3</v>
-      </c>
-      <c r="D97" s="7">
         <v>8.6014954000000005E-2</v>
       </c>
-      <c r="E97" s="6">
+      <c r="D97" s="6">
         <v>0.97216453199999997</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>476</v>
       </c>
@@ -2159,16 +1865,13 @@
         <v>9.1856959000000002E-2</v>
       </c>
       <c r="C98" s="7">
-        <v>2.5102810000000001E-3</v>
-      </c>
-      <c r="D98" s="7">
         <v>8.5649333999999994E-2</v>
       </c>
-      <c r="E98" s="6">
+      <c r="D98" s="6">
         <v>0.96977551299999998</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>477</v>
       </c>
@@ -2176,16 +1879,13 @@
         <v>9.3471033999999995E-2</v>
       </c>
       <c r="C99" s="7">
-        <v>2.7727099999999998E-3</v>
-      </c>
-      <c r="D99" s="7">
         <v>8.5481276999999994E-2</v>
       </c>
-      <c r="E99" s="6">
+      <c r="D99" s="6">
         <v>0.97413976300000005</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>478</v>
       </c>
@@ -2193,16 +1893,13 @@
         <v>9.4831180000000001E-2</v>
       </c>
       <c r="C100" s="7">
-        <v>3.483571E-3</v>
-      </c>
-      <c r="D100" s="7">
         <v>8.6025918000000007E-2</v>
       </c>
-      <c r="E100" s="6">
+      <c r="D100" s="6">
         <v>0.98359053900000004</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>479</v>
       </c>
@@ -2210,16 +1907,13 @@
         <v>9.6217819999999996E-2</v>
       </c>
       <c r="C101" s="7">
-        <v>4.8432689999999999E-3</v>
-      </c>
-      <c r="D101" s="7">
         <v>8.7144997000000002E-2</v>
       </c>
-      <c r="E101" s="6">
+      <c r="D101" s="6">
         <v>0.988391668</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>480</v>
       </c>
@@ -2227,16 +1921,13 @@
         <v>9.8040373E-2</v>
       </c>
       <c r="C102" s="7">
-        <v>6.8852460000000002E-3</v>
-      </c>
-      <c r="D102" s="7">
         <v>8.9711004999999996E-2</v>
       </c>
-      <c r="E102" s="6">
+      <c r="D102" s="6">
         <v>0.99454682900000002</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>481</v>
       </c>
@@ -2244,16 +1935,13 @@
         <v>9.9483334000000007E-2</v>
       </c>
       <c r="C103" s="7">
-        <v>1.1062031999999999E-2</v>
-      </c>
-      <c r="D103" s="7">
         <v>9.5774669000000007E-2</v>
       </c>
-      <c r="E103" s="6">
+      <c r="D103" s="6">
         <v>0.99967182099999996</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>482</v>
       </c>
@@ -2261,16 +1949,13 @@
         <v>0.100849488</v>
       </c>
       <c r="C104" s="7">
-        <v>1.8238054E-2</v>
-      </c>
-      <c r="D104" s="7">
         <v>0.106680829</v>
       </c>
-      <c r="E104" s="6">
+      <c r="D104" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>483</v>
       </c>
@@ -2278,16 +1963,13 @@
         <v>0.10249873599999999</v>
       </c>
       <c r="C105" s="7">
-        <v>3.0241924999999999E-2</v>
-      </c>
-      <c r="D105" s="7">
         <v>0.12587721399999999</v>
       </c>
-      <c r="E105" s="6">
+      <c r="D105" s="6">
         <v>0.99370547799999998</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>484</v>
       </c>
@@ -2295,16 +1977,13 @@
         <v>0.10426603399999999</v>
       </c>
       <c r="C106" s="7">
-        <v>4.6805237999999999E-2</v>
-      </c>
-      <c r="D106" s="7">
         <v>0.15314136</v>
       </c>
-      <c r="E106" s="6">
+      <c r="D106" s="6">
         <v>0.96809327899999997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>485</v>
       </c>
@@ -2312,16 +1991,13 @@
         <v>0.105888813</v>
       </c>
       <c r="C107" s="7">
-        <v>6.4867904000000004E-2</v>
-      </c>
-      <c r="D107" s="7">
         <v>0.18301147700000001</v>
       </c>
-      <c r="E107" s="6">
+      <c r="D107" s="6">
         <v>0.92376740800000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>486</v>
       </c>
@@ -2329,16 +2005,13 @@
         <v>0.107681863</v>
       </c>
       <c r="C108" s="7">
-        <v>8.0215559000000006E-2</v>
-      </c>
-      <c r="D108" s="7">
         <v>0.209456858</v>
       </c>
-      <c r="E108" s="6">
+      <c r="D108" s="6">
         <v>0.89052728000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>487</v>
       </c>
@@ -2346,16 +2019,13 @@
         <v>0.109277894</v>
       </c>
       <c r="C109" s="7">
-        <v>8.7397317000000002E-2</v>
-      </c>
-      <c r="D109" s="7">
         <v>0.22094533399999999</v>
       </c>
-      <c r="E109" s="6">
+      <c r="D109" s="6">
         <v>0.90047259899999998</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>488</v>
       </c>
@@ -2363,16 +2033,13 @@
         <v>0.111106319</v>
       </c>
       <c r="C110" s="7">
-        <v>8.8743225999999995E-2</v>
-      </c>
-      <c r="D110" s="7">
         <v>0.22231115600000001</v>
       </c>
-      <c r="E110" s="6">
+      <c r="D110" s="6">
         <v>0.93388569799999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>489</v>
       </c>
@@ -2380,16 +2047,13 @@
         <v>0.112839358</v>
       </c>
       <c r="C111" s="7">
-        <v>8.5183791999999994E-2</v>
-      </c>
-      <c r="D111" s="7">
         <v>0.215212397</v>
       </c>
-      <c r="E111" s="6">
+      <c r="D111" s="6">
         <v>0.96373694099999996</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>490</v>
       </c>
@@ -2397,16 +2061,13 @@
         <v>0.114455638</v>
       </c>
       <c r="C112" s="7">
-        <v>7.9546221E-2</v>
-      </c>
-      <c r="D112" s="7">
         <v>0.204600647</v>
       </c>
-      <c r="E112" s="6">
+      <c r="D112" s="6">
         <v>0.97414608899999999</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>491</v>
       </c>
@@ -2414,16 +2075,13 @@
         <v>0.11617646099999999</v>
       </c>
       <c r="C113" s="7">
-        <v>7.3498676999999998E-2</v>
-      </c>
-      <c r="D113" s="7">
         <v>0.193425509</v>
       </c>
-      <c r="E113" s="6">
+      <c r="D113" s="6">
         <v>0.97205356700000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>492</v>
       </c>
@@ -2431,16 +2089,13 @@
         <v>0.118140879</v>
       </c>
       <c r="C114" s="7">
-        <v>6.6911971000000001E-2</v>
-      </c>
-      <c r="D114" s="7">
         <v>0.182281687</v>
       </c>
-      <c r="E114" s="6">
+      <c r="D114" s="6">
         <v>0.96776330600000005</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>493</v>
       </c>
@@ -2448,16 +2103,13 @@
         <v>0.11987471700000001</v>
       </c>
       <c r="C115" s="7">
-        <v>6.0125288999999998E-2</v>
-      </c>
-      <c r="D115" s="7">
         <v>0.16924238</v>
       </c>
-      <c r="E115" s="6">
+      <c r="D115" s="6">
         <v>0.97535825799999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>494</v>
       </c>
@@ -2465,16 +2117,13 @@
         <v>0.12175277900000001</v>
       </c>
       <c r="C116" s="7">
-        <v>5.3055525999999999E-2</v>
-      </c>
-      <c r="D116" s="7">
         <v>0.15607774299999999</v>
       </c>
-      <c r="E116" s="6">
+      <c r="D116" s="6">
         <v>0.99124987799999997</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>495</v>
       </c>
@@ -2482,16 +2131,13 @@
         <v>0.12357282999999999</v>
       </c>
       <c r="C117" s="7">
-        <v>4.7320145000000001E-2</v>
-      </c>
-      <c r="D117" s="7">
         <v>0.14507057400000001</v>
       </c>
-      <c r="E117" s="6">
+      <c r="D117" s="6">
         <v>0.99837941200000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>496</v>
       </c>
@@ -2499,16 +2145,13 @@
         <v>0.12501785100000001</v>
       </c>
       <c r="C118" s="7">
-        <v>4.2857438999999997E-2</v>
-      </c>
-      <c r="D118" s="7">
         <v>0.13653179100000001</v>
       </c>
-      <c r="E118" s="6">
+      <c r="D118" s="6">
         <v>0.99799443099999996</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>497</v>
       </c>
@@ -2516,16 +2159,13 @@
         <v>0.12709957899999999</v>
       </c>
       <c r="C119" s="7">
-        <v>3.9171034E-2</v>
-      </c>
-      <c r="D119" s="7">
         <v>0.12916851600000001</v>
       </c>
-      <c r="E119" s="6">
+      <c r="D119" s="6">
         <v>0.99146457499999996</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>498</v>
       </c>
@@ -2533,16 +2173,13 @@
         <v>0.128974119</v>
       </c>
       <c r="C120" s="7">
-        <v>3.3468680000000001E-2</v>
-      </c>
-      <c r="D120" s="7">
         <v>0.11836886200000001</v>
       </c>
-      <c r="E120" s="6">
+      <c r="D120" s="6">
         <v>0.98097426899999995</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>499</v>
       </c>
@@ -2550,16 +2187,13 @@
         <v>0.13097252000000001</v>
       </c>
       <c r="C121" s="7">
-        <v>2.6514096000000001E-2</v>
-      </c>
-      <c r="D121" s="7">
         <v>0.10511316599999999</v>
       </c>
-      <c r="E121" s="6">
+      <c r="D121" s="6">
         <v>0.96960638700000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>500</v>
       </c>
@@ -2567,16 +2201,13 @@
         <v>0.13297771999999999</v>
       </c>
       <c r="C122" s="7">
-        <v>1.9515468000000001E-2</v>
-      </c>
-      <c r="D122" s="7">
         <v>9.2092604999999994E-2</v>
       </c>
-      <c r="E122" s="6">
+      <c r="D122" s="6">
         <v>0.95548079299999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>501</v>
       </c>
@@ -2584,16 +2215,13 @@
         <v>0.13490498000000001</v>
       </c>
       <c r="C123" s="7">
-        <v>1.4098757E-2</v>
-      </c>
-      <c r="D123" s="7">
         <v>8.1828156999999999E-2</v>
       </c>
-      <c r="E123" s="6">
+      <c r="D123" s="6">
         <v>0.94266735199999996</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>502</v>
       </c>
@@ -2601,16 +2229,13 @@
         <v>0.136966539</v>
       </c>
       <c r="C124" s="7">
-        <v>9.9446069999999994E-3</v>
-      </c>
-      <c r="D124" s="7">
         <v>7.4016733000000001E-2</v>
       </c>
-      <c r="E124" s="6">
+      <c r="D124" s="6">
         <v>0.93882311299999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>503</v>
       </c>
@@ -2618,16 +2243,13 @@
         <v>0.139141927</v>
       </c>
       <c r="C125" s="7">
-        <v>7.2985330000000003E-3</v>
-      </c>
-      <c r="D125" s="7">
         <v>6.8348443999999994E-2</v>
       </c>
-      <c r="E125" s="6">
+      <c r="D125" s="6">
         <v>0.94138794599999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>504</v>
       </c>
@@ -2635,16 +2257,13 @@
         <v>0.141032618</v>
       </c>
       <c r="C126" s="7">
-        <v>5.5651110000000002E-3</v>
-      </c>
-      <c r="D126" s="7">
         <v>6.4402148000000006E-2</v>
       </c>
-      <c r="E126" s="6">
+      <c r="D126" s="6">
         <v>0.949416233</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>505</v>
       </c>
@@ -2652,16 +2271,13 @@
         <v>0.14310695700000001</v>
       </c>
       <c r="C127" s="7">
-        <v>4.3326190000000002E-3</v>
-      </c>
-      <c r="D127" s="7">
         <v>6.1208480000000003E-2</v>
       </c>
-      <c r="E127" s="6">
+      <c r="D127" s="6">
         <v>0.96118440100000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>506</v>
       </c>
@@ -2669,16 +2285,13 @@
         <v>0.145135606</v>
       </c>
       <c r="C128" s="7">
-        <v>3.4790009999999998E-3</v>
-      </c>
-      <c r="D128" s="7">
         <v>5.8384013999999998E-2</v>
       </c>
-      <c r="E128" s="6">
+      <c r="D128" s="6">
         <v>0.97017508100000005</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>507</v>
       </c>
@@ -2686,16 +2299,13 @@
         <v>0.147181058</v>
       </c>
       <c r="C129" s="7">
-        <v>3.0822200000000001E-3</v>
-      </c>
-      <c r="D129" s="7">
         <v>5.6347257999999997E-2</v>
       </c>
-      <c r="E129" s="6">
+      <c r="D129" s="6">
         <v>0.96616167600000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>508</v>
       </c>
@@ -2703,16 +2313,13 @@
         <v>0.14915669600000001</v>
       </c>
       <c r="C130" s="7">
-        <v>3.045449E-3</v>
-      </c>
-      <c r="D130" s="7">
         <v>5.4820136999999998E-2</v>
       </c>
-      <c r="E130" s="6">
+      <c r="D130" s="6">
         <v>0.964550766</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>509</v>
       </c>
@@ -2720,16 +2327,13 @@
         <v>0.15130875999999999</v>
       </c>
       <c r="C131" s="7">
-        <v>3.22617E-3</v>
-      </c>
-      <c r="D131" s="7">
         <v>5.3660943000000003E-2</v>
       </c>
-      <c r="E131" s="6">
+      <c r="D131" s="6">
         <v>0.97010063700000004</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>510</v>
       </c>
@@ -2737,16 +2341,13 @@
         <v>0.153556898</v>
       </c>
       <c r="C132" s="7">
-        <v>3.3856329999999999E-3</v>
-      </c>
-      <c r="D132" s="7">
         <v>5.2459805999999998E-2</v>
       </c>
-      <c r="E132" s="6">
+      <c r="D132" s="6">
         <v>0.976970385</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>511</v>
       </c>
@@ -2754,16 +2355,13 @@
         <v>0.15526795900000001</v>
       </c>
       <c r="C133" s="7">
-        <v>3.3415139999999999E-3</v>
-      </c>
-      <c r="D133" s="7">
         <v>5.1372040000000001E-2</v>
       </c>
-      <c r="E133" s="6">
+      <c r="D133" s="6">
         <v>0.97801077000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>512</v>
       </c>
@@ -2771,16 +2369,13 @@
         <v>0.15792510600000001</v>
       </c>
       <c r="C134" s="7">
-        <v>3.467758E-3</v>
-      </c>
-      <c r="D134" s="7">
         <v>5.0506283999999999E-2</v>
       </c>
-      <c r="E134" s="6">
+      <c r="D134" s="6">
         <v>0.97389473100000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>513</v>
       </c>
@@ -2788,16 +2383,13 @@
         <v>0.16001313</v>
       </c>
       <c r="C135" s="7">
-        <v>3.5169020000000001E-3</v>
-      </c>
-      <c r="D135" s="7">
         <v>4.9429022000000003E-2</v>
       </c>
-      <c r="E135" s="6">
+      <c r="D135" s="6">
         <v>0.96118533900000003</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>514</v>
       </c>
@@ -2805,16 +2397,13 @@
         <v>0.162169491</v>
       </c>
       <c r="C136" s="7">
-        <v>3.393657E-3</v>
-      </c>
-      <c r="D136" s="7">
         <v>4.8060567999999998E-2</v>
       </c>
-      <c r="E136" s="6">
+      <c r="D136" s="6">
         <v>0.951319374</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>515</v>
       </c>
@@ -2822,16 +2411,13 @@
         <v>0.164146076</v>
       </c>
       <c r="C137" s="7">
-        <v>3.2437630000000002E-3</v>
-      </c>
-      <c r="D137" s="7">
         <v>4.6969221999999998E-2</v>
       </c>
-      <c r="E137" s="6">
+      <c r="D137" s="6">
         <v>0.93306073300000003</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>516</v>
       </c>
@@ -2839,16 +2425,13 @@
         <v>0.16636524999999999</v>
       </c>
       <c r="C138" s="7">
-        <v>3.1185710000000001E-3</v>
-      </c>
-      <c r="D138" s="7">
         <v>4.5747257E-2</v>
       </c>
-      <c r="E138" s="6">
+      <c r="D138" s="6">
         <v>0.90260180499999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>517</v>
       </c>
@@ -2856,16 +2439,13 @@
         <v>0.16892660600000001</v>
       </c>
       <c r="C139" s="7">
-        <v>2.9962090000000001E-3</v>
-      </c>
-      <c r="D139" s="7">
         <v>4.4568521999999999E-2</v>
       </c>
-      <c r="E139" s="6">
+      <c r="D139" s="6">
         <v>0.87652981100000005</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>518</v>
       </c>
@@ -2873,16 +2453,13 @@
         <v>0.17109586099999999</v>
       </c>
       <c r="C140" s="7">
-        <v>2.7384570000000001E-3</v>
-      </c>
-      <c r="D140" s="7">
         <v>4.3324098999999998E-2</v>
       </c>
-      <c r="E140" s="6">
+      <c r="D140" s="6">
         <v>0.88293969100000003</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>519</v>
       </c>
@@ -2890,16 +2467,13 @@
         <v>0.173413331</v>
       </c>
       <c r="C141" s="7">
-        <v>2.4566319999999998E-3</v>
-      </c>
-      <c r="D141" s="7">
         <v>4.2015858000000003E-2</v>
       </c>
-      <c r="E141" s="6">
+      <c r="D141" s="6">
         <v>0.90929908699999995</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>520</v>
       </c>
@@ -2907,16 +2481,13 @@
         <v>0.17562626100000001</v>
       </c>
       <c r="C142" s="7">
-        <v>2.2667149999999999E-3</v>
-      </c>
-      <c r="D142" s="7">
         <v>4.0661709999999997E-2</v>
       </c>
-      <c r="E142" s="6">
+      <c r="D142" s="6">
         <v>0.93587134299999997</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>521</v>
       </c>
@@ -2924,16 +2495,13 @@
         <v>0.17792893600000001</v>
       </c>
       <c r="C143" s="7">
-        <v>2.0790499999999998E-3</v>
-      </c>
-      <c r="D143" s="7">
         <v>3.9456850000000002E-2</v>
       </c>
-      <c r="E143" s="6">
+      <c r="D143" s="6">
         <v>0.94939253599999995</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>522</v>
       </c>
@@ -2941,16 +2509,13 @@
         <v>0.18059093400000001</v>
       </c>
       <c r="C144" s="7">
-        <v>1.907061E-3</v>
-      </c>
-      <c r="D144" s="7">
         <v>3.8283821000000003E-2</v>
       </c>
-      <c r="E144" s="6">
+      <c r="D144" s="6">
         <v>0.953964009</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>523</v>
       </c>
@@ -2958,16 +2523,13 @@
         <v>0.18282578799999999</v>
       </c>
       <c r="C145" s="7">
-        <v>1.804845E-3</v>
-      </c>
-      <c r="D145" s="7">
         <v>3.7126723E-2</v>
       </c>
-      <c r="E145" s="6">
+      <c r="D145" s="6">
         <v>0.95978474199999997</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>524</v>
       </c>
@@ -2975,16 +2537,13 @@
         <v>0.18519032199999999</v>
       </c>
       <c r="C146" s="7">
-        <v>1.806151E-3</v>
-      </c>
-      <c r="D146" s="7">
         <v>3.6203639000000003E-2</v>
       </c>
-      <c r="E146" s="6">
+      <c r="D146" s="6">
         <v>0.96527830299999995</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>525</v>
       </c>
@@ -2992,16 +2551,13 @@
         <v>0.187575204</v>
       </c>
       <c r="C147" s="7">
-        <v>1.9000919999999999E-3</v>
-      </c>
-      <c r="D147" s="7">
         <v>3.5266422999999998E-2</v>
       </c>
-      <c r="E147" s="6">
+      <c r="D147" s="6">
         <v>0.95385730400000002</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>526</v>
       </c>
@@ -3009,16 +2565,13 @@
         <v>0.189868334</v>
       </c>
       <c r="C148" s="7">
-        <v>2.1156259999999998E-3</v>
-      </c>
-      <c r="D148" s="7">
         <v>3.4451747999999997E-2</v>
       </c>
-      <c r="E148" s="6">
+      <c r="D148" s="6">
         <v>0.92619848400000004</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>527</v>
       </c>
@@ -3026,16 +2579,13 @@
         <v>0.192738148</v>
       </c>
       <c r="C149" s="7">
-        <v>2.3452E-3</v>
-      </c>
-      <c r="D149" s="7">
         <v>3.3863922999999997E-2</v>
       </c>
-      <c r="E149" s="6">
+      <c r="D149" s="6">
         <v>0.91802050300000004</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>528</v>
       </c>
@@ -3043,16 +2593,13 @@
         <v>0.194985565</v>
       </c>
       <c r="C150" s="7">
-        <v>2.4595429999999998E-3</v>
-      </c>
-      <c r="D150" s="7">
         <v>3.3110128000000003E-2</v>
       </c>
-      <c r="E150" s="6">
+      <c r="D150" s="6">
         <v>0.93905122500000004</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>529</v>
       </c>
@@ -3060,16 +2607,13 @@
         <v>0.19730594600000001</v>
       </c>
       <c r="C151" s="7">
-        <v>2.5368019999999999E-3</v>
-      </c>
-      <c r="D151" s="7">
         <v>3.242718E-2</v>
       </c>
-      <c r="E151" s="6">
+      <c r="D151" s="6">
         <v>0.96091450499999997</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>530</v>
       </c>
@@ -3077,16 +2621,13 @@
         <v>0.199813624</v>
       </c>
       <c r="C152" s="7">
-        <v>2.9565300000000002E-3</v>
-      </c>
-      <c r="D152" s="7">
         <v>3.2113297999999998E-2</v>
       </c>
-      <c r="E152" s="6">
+      <c r="D152" s="6">
         <v>0.97119712999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>531</v>
       </c>
@@ -3094,16 +2635,13 @@
         <v>0.202254615</v>
       </c>
       <c r="C153" s="7">
-        <v>4.9678719999999999E-3</v>
-      </c>
-      <c r="D153" s="7">
         <v>3.2634310999999999E-2</v>
       </c>
-      <c r="E153" s="6">
+      <c r="D153" s="6">
         <v>0.96509159300000003</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>532</v>
       </c>
@@ -3111,16 +2649,13 @@
         <v>0.20511237199999999</v>
       </c>
       <c r="C154" s="7">
-        <v>1.0069785E-2</v>
-      </c>
-      <c r="D154" s="7">
         <v>3.4737282000000001E-2</v>
       </c>
-      <c r="E154" s="6">
+      <c r="D154" s="6">
         <v>0.95196949200000003</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>533</v>
       </c>
@@ -3128,16 +2663,13 @@
         <v>0.20744539200000001</v>
       </c>
       <c r="C155" s="7">
-        <v>1.4716048000000001E-2</v>
-      </c>
-      <c r="D155" s="7">
         <v>3.7223618999999999E-2</v>
       </c>
-      <c r="E155" s="6">
+      <c r="D155" s="6">
         <v>0.94200245699999996</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>534</v>
       </c>
@@ -3145,16 +2677,13 @@
         <v>0.209842213</v>
       </c>
       <c r="C156" s="7">
-        <v>1.6037185999999998E-2</v>
-      </c>
-      <c r="D156" s="7">
         <v>3.9883344000000001E-2</v>
       </c>
-      <c r="E156" s="6">
+      <c r="D156" s="6">
         <v>0.95303716199999999</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>535</v>
       </c>
@@ -3162,16 +2691,13 @@
         <v>0.21228297199999999</v>
       </c>
       <c r="C157" s="7">
-        <v>1.6584624999999999E-2</v>
-      </c>
-      <c r="D157" s="7">
         <v>4.4215058000000002E-2</v>
       </c>
-      <c r="E157" s="6">
+      <c r="D157" s="6">
         <v>0.96272382599999995</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>536</v>
       </c>
@@ -3179,16 +2705,13 @@
         <v>0.21475097500000001</v>
       </c>
       <c r="C158" s="7">
-        <v>2.1676601E-2</v>
-      </c>
-      <c r="D158" s="7">
         <v>5.3203937E-2</v>
       </c>
-      <c r="E158" s="6">
+      <c r="D158" s="6">
         <v>0.963761274</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>537</v>
       </c>
@@ -3196,16 +2719,13 @@
         <v>0.21748334599999999</v>
       </c>
       <c r="C159" s="7">
-        <v>3.6324979E-2</v>
-      </c>
-      <c r="D159" s="7">
         <v>7.4867462999999995E-2</v>
       </c>
-      <c r="E159" s="6">
+      <c r="D159" s="6">
         <v>0.96041416199999996</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>538</v>
       </c>
@@ -3213,16 +2733,13 @@
         <v>0.22031884900000001</v>
       </c>
       <c r="C160" s="7">
-        <v>5.9969682000000003E-2</v>
-      </c>
-      <c r="D160" s="7">
         <v>0.114074886</v>
       </c>
-      <c r="E160" s="6">
+      <c r="D160" s="6">
         <v>0.954855432</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>539</v>
       </c>
@@ -3230,16 +2747,13 @@
         <v>0.22279898100000001</v>
       </c>
       <c r="C161" s="7">
-        <v>9.3037997999999997E-2</v>
-      </c>
-      <c r="D161" s="7">
         <v>0.17280564800000001</v>
       </c>
-      <c r="E161" s="6">
+      <c r="D161" s="6">
         <v>0.94211080999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>540</v>
       </c>
@@ -3247,16 +2761,13 @@
         <v>0.225039618</v>
       </c>
       <c r="C162" s="7">
-        <v>0.15854574699999999</v>
-      </c>
-      <c r="D162" s="7">
         <v>0.28870058700000001</v>
       </c>
-      <c r="E162" s="6">
+      <c r="D162" s="6">
         <v>0.92745819600000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>541</v>
       </c>
@@ -3264,16 +2775,13 @@
         <v>0.22821613800000001</v>
       </c>
       <c r="C163" s="7">
-        <v>0.27930169100000002</v>
-      </c>
-      <c r="D163" s="7">
         <v>0.49723300799999998</v>
       </c>
-      <c r="E163" s="6">
+      <c r="D163" s="6">
         <v>0.92960051700000002</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>542</v>
       </c>
@@ -3281,16 +2789,13 @@
         <v>0.23052463000000001</v>
       </c>
       <c r="C164" s="7">
-        <v>0.40992541799999999</v>
-      </c>
-      <c r="D164" s="7">
         <v>0.72129827099999999</v>
       </c>
-      <c r="E164" s="6">
+      <c r="D164" s="6">
         <v>0.93469946999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>543</v>
       </c>
@@ -3298,16 +2803,13 @@
         <v>0.233479936</v>
       </c>
       <c r="C165" s="7">
-        <v>0.49207717400000001</v>
-      </c>
-      <c r="D165" s="7">
         <v>0.85914769800000002</v>
       </c>
-      <c r="E165" s="6">
+      <c r="D165" s="6">
         <v>0.94214753600000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>544</v>
       </c>
@@ -3315,16 +2817,13 @@
         <v>0.235935706</v>
       </c>
       <c r="C166" s="7">
-        <v>0.56252262200000003</v>
-      </c>
-      <c r="D166" s="7">
         <v>0.93330037600000004</v>
       </c>
-      <c r="E166" s="6">
+      <c r="D166" s="6">
         <v>0.94626619099999998</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>545</v>
       </c>
@@ -3332,16 +2831,13 @@
         <v>0.238251925</v>
       </c>
       <c r="C167" s="7">
-        <v>0.65076310199999998</v>
-      </c>
-      <c r="D167" s="7">
         <v>1</v>
       </c>
-      <c r="E167" s="6">
+      <c r="D167" s="6">
         <v>0.94639198199999996</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>546</v>
       </c>
@@ -3349,16 +2845,13 @@
         <v>0.241559418</v>
       </c>
       <c r="C168" s="7">
-        <v>0.61332494699999995</v>
-      </c>
-      <c r="D168" s="7">
         <v>0.90332188800000002</v>
       </c>
-      <c r="E168" s="6">
+      <c r="D168" s="6">
         <v>0.94500680000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>547</v>
       </c>
@@ -3366,16 +2859,13 @@
         <v>0.24409262000000001</v>
       </c>
       <c r="C169" s="7">
-        <v>0.43102086499999998</v>
-      </c>
-      <c r="D169" s="7">
         <v>0.64411766299999995</v>
       </c>
-      <c r="E169" s="6">
+      <c r="D169" s="6">
         <v>0.93977767499999998</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>548</v>
       </c>
@@ -3383,16 +2873,13 @@
         <v>0.24653114800000001</v>
       </c>
       <c r="C170" s="7">
-        <v>0.23404370999999999</v>
-      </c>
-      <c r="D170" s="7">
         <v>0.38260271800000001</v>
       </c>
-      <c r="E170" s="6">
+      <c r="D170" s="6">
         <v>0.937516778</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>549</v>
       </c>
@@ -3400,16 +2887,13 @@
         <v>0.24937024599999999</v>
       </c>
       <c r="C171" s="7">
-        <v>0.163533073</v>
-      </c>
-      <c r="D171" s="7">
         <v>0.287194118</v>
       </c>
-      <c r="E171" s="6">
+      <c r="D171" s="6">
         <v>0.94035057200000005</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>550</v>
       </c>
@@ -3417,16 +2901,13 @@
         <v>0.25171871899999998</v>
       </c>
       <c r="C172" s="7">
-        <v>0.13510219300000001</v>
-      </c>
-      <c r="D172" s="7">
         <v>0.24323782699999999</v>
       </c>
-      <c r="E172" s="6">
+      <c r="D172" s="6">
         <v>0.93919685600000002</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>551</v>
       </c>
@@ -3434,16 +2915,13 @@
         <v>0.254481707</v>
       </c>
       <c r="C173" s="7">
-        <v>0.114494146</v>
-      </c>
-      <c r="D173" s="7">
         <v>0.20887319600000001</v>
       </c>
-      <c r="E173" s="6">
+      <c r="D173" s="6">
         <v>0.93777498400000003</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>552</v>
       </c>
@@ -3451,16 +2929,13 @@
         <v>0.25705320599999998</v>
       </c>
       <c r="C174" s="7">
-        <v>9.7061769000000006E-2</v>
-      </c>
-      <c r="D174" s="7">
         <v>0.178909767</v>
       </c>
-      <c r="E174" s="6">
+      <c r="D174" s="6">
         <v>0.93560793099999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>553</v>
       </c>
@@ -3468,16 +2943,13 @@
         <v>0.25991347199999998</v>
       </c>
       <c r="C175" s="7">
-        <v>7.6881718000000002E-2</v>
-      </c>
-      <c r="D175" s="7">
         <v>0.14351925700000001</v>
       </c>
-      <c r="E175" s="6">
+      <c r="D175" s="6">
         <v>0.93681751400000002</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>554</v>
       </c>
@@ -3485,16 +2957,13 @@
         <v>0.26285334399999999</v>
       </c>
       <c r="C176" s="7">
-        <v>5.2847218000000001E-2</v>
-      </c>
-      <c r="D176" s="7">
         <v>0.102156603</v>
       </c>
-      <c r="E176" s="6">
+      <c r="D176" s="6">
         <v>0.93902216299999997</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>555</v>
       </c>
@@ -3502,16 +2971,13 @@
         <v>0.26558793800000002</v>
       </c>
       <c r="C177" s="7">
-        <v>3.3291750000000002E-2</v>
-      </c>
-      <c r="D177" s="7">
         <v>6.9452020000000003E-2</v>
       </c>
-      <c r="E177" s="6">
+      <c r="D177" s="6">
         <v>0.93374281299999995</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>556</v>
       </c>
@@ -3519,16 +2985,13 @@
         <v>0.26875685500000002</v>
       </c>
       <c r="C178" s="7">
-        <v>2.0429586E-2</v>
-      </c>
-      <c r="D178" s="7">
         <v>4.8456776E-2</v>
       </c>
-      <c r="E178" s="6">
+      <c r="D178" s="6">
         <v>0.92431841800000003</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>557</v>
       </c>
@@ -3536,16 +2999,13 @@
         <v>0.271154597</v>
       </c>
       <c r="C179" s="7">
-        <v>1.4439953E-2</v>
-      </c>
-      <c r="D179" s="7">
         <v>3.8581809000000002E-2</v>
       </c>
-      <c r="E179" s="6">
+      <c r="D179" s="6">
         <v>0.90921365099999996</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>558</v>
       </c>
@@ -3553,16 +3013,13 @@
         <v>0.273762915</v>
       </c>
       <c r="C180" s="7">
-        <v>1.1281051E-2</v>
-      </c>
-      <c r="D180" s="7">
         <v>3.3482036E-2</v>
       </c>
-      <c r="E180" s="6">
+      <c r="D180" s="6">
         <v>0.89446612999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>559</v>
       </c>
@@ -3570,16 +3027,13 @@
         <v>0.27668543099999998</v>
       </c>
       <c r="C181" s="7">
-        <v>9.3619719999999997E-3</v>
-      </c>
-      <c r="D181" s="7">
         <v>2.9972255999999999E-2</v>
       </c>
-      <c r="E181" s="6">
+      <c r="D181" s="6">
         <v>0.88725176299999997</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>560</v>
       </c>
@@ -3587,16 +3041,13 @@
         <v>0.279825667</v>
       </c>
       <c r="C182" s="7">
-        <v>8.3372470000000008E-3</v>
-      </c>
-      <c r="D182" s="7">
         <v>2.7542517999999998E-2</v>
       </c>
-      <c r="E182" s="6">
+      <c r="D182" s="6">
         <v>0.88937168200000005</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>561</v>
       </c>
@@ -3604,16 +3055,13 @@
         <v>0.28212101000000001</v>
       </c>
       <c r="C183" s="7">
-        <v>7.8128020000000006E-3</v>
-      </c>
-      <c r="D183" s="7">
         <v>2.5517498999999999E-2</v>
       </c>
-      <c r="E183" s="6">
+      <c r="D183" s="6">
         <v>0.89009716100000003</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>562</v>
       </c>
@@ -3621,16 +3069,13 @@
         <v>0.28556857699999999</v>
       </c>
       <c r="C184" s="7">
-        <v>7.3980809999999999E-3</v>
-      </c>
-      <c r="D184" s="7">
         <v>2.3967966E-2</v>
       </c>
-      <c r="E184" s="6">
+      <c r="D184" s="6">
         <v>0.89034632400000002</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>563</v>
       </c>
@@ -3638,16 +3083,13 @@
         <v>0.28785655100000002</v>
       </c>
       <c r="C185" s="7">
-        <v>6.9268610000000003E-3</v>
-      </c>
-      <c r="D185" s="7">
         <v>2.2679993999999998E-2</v>
       </c>
-      <c r="E185" s="6">
+      <c r="D185" s="6">
         <v>0.88621279399999997</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>564</v>
       </c>
@@ -3655,16 +3097,13 @@
         <v>0.290793941</v>
       </c>
       <c r="C186" s="7">
-        <v>6.2336459999999998E-3</v>
-      </c>
-      <c r="D186" s="7">
         <v>2.1609636000000002E-2</v>
       </c>
-      <c r="E186" s="6">
+      <c r="D186" s="6">
         <v>0.87903439999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>565</v>
       </c>
@@ -3672,16 +3111,13 @@
         <v>0.293825858</v>
       </c>
       <c r="C187" s="7">
-        <v>5.6414439999999998E-3</v>
-      </c>
-      <c r="D187" s="7">
         <v>2.0834368999999998E-2</v>
       </c>
-      <c r="E187" s="6">
+      <c r="D187" s="6">
         <v>0.87114842000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>566</v>
       </c>
@@ -3689,16 +3125,13 @@
         <v>0.29664623000000001</v>
       </c>
       <c r="C188" s="7">
-        <v>5.351911E-3</v>
-      </c>
-      <c r="D188" s="7">
         <v>2.0527805999999999E-2</v>
       </c>
-      <c r="E188" s="6">
+      <c r="D188" s="6">
         <v>0.86718910599999999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>567</v>
       </c>
@@ -3706,16 +3139,13 @@
         <v>0.29954577799999998</v>
       </c>
       <c r="C189" s="7">
-        <v>5.4996020000000001E-3</v>
-      </c>
-      <c r="D189" s="7">
         <v>2.0460325000000001E-2</v>
       </c>
-      <c r="E189" s="6">
+      <c r="D189" s="6">
         <v>0.86300129999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>568</v>
       </c>
@@ -3723,16 +3153,13 @@
         <v>0.30260028300000003</v>
       </c>
       <c r="C190" s="7">
-        <v>5.7605019999999998E-3</v>
-      </c>
-      <c r="D190" s="7">
         <v>2.0772175E-2</v>
       </c>
-      <c r="E190" s="6">
+      <c r="D190" s="6">
         <v>0.85579725200000001</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>569</v>
       </c>
@@ -3740,16 +3167,13 @@
         <v>0.30495699700000001</v>
       </c>
       <c r="C191" s="7">
-        <v>5.701897E-3</v>
-      </c>
-      <c r="D191" s="7">
         <v>2.1243515000000001E-2</v>
       </c>
-      <c r="E191" s="6">
+      <c r="D191" s="6">
         <v>0.84213643199999999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>570</v>
       </c>
@@ -3757,16 +3181,13 @@
         <v>0.307485381</v>
       </c>
       <c r="C192" s="7">
-        <v>5.3392989999999996E-3</v>
-      </c>
-      <c r="D192" s="7">
         <v>2.2210568999999999E-2</v>
       </c>
-      <c r="E192" s="6">
+      <c r="D192" s="6">
         <v>0.83281100600000002</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>571</v>
       </c>
@@ -3774,16 +3195,13 @@
         <v>0.31136976700000002</v>
       </c>
       <c r="C193" s="7">
-        <v>5.3860289999999996E-3</v>
-      </c>
-      <c r="D193" s="7">
         <v>2.4005558E-2</v>
       </c>
-      <c r="E193" s="6">
+      <c r="D193" s="6">
         <v>0.83287899899999995</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>572</v>
       </c>
@@ -3791,16 +3209,13 @@
         <v>0.313986239</v>
       </c>
       <c r="C194" s="7">
-        <v>6.3120859999999997E-3</v>
-      </c>
-      <c r="D194" s="7">
         <v>2.6557859999999999E-2</v>
       </c>
-      <c r="E194" s="6">
+      <c r="D194" s="6">
         <v>0.83761240800000003</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>573</v>
       </c>
@@ -3808,16 +3223,13 @@
         <v>0.31642447600000001</v>
       </c>
       <c r="C195" s="7">
-        <v>7.9233299999999993E-3</v>
-      </c>
-      <c r="D195" s="7">
         <v>2.9669458999999999E-2</v>
       </c>
-      <c r="E195" s="6">
+      <c r="D195" s="6">
         <v>0.83953461200000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>574</v>
       </c>
@@ -3825,16 +3237,13 @@
         <v>0.31952944799999999</v>
       </c>
       <c r="C196" s="7">
-        <v>1.1608040999999999E-2</v>
-      </c>
-      <c r="D196" s="7">
         <v>3.5017517999999997E-2</v>
       </c>
-      <c r="E196" s="6">
+      <c r="D196" s="6">
         <v>0.83452744199999995</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>575</v>
       </c>
@@ -3842,16 +3251,13 @@
         <v>0.32202224000000002</v>
       </c>
       <c r="C197" s="7">
-        <v>3.2636013999999998E-2</v>
-      </c>
-      <c r="D197" s="7">
         <v>5.9960991999999998E-2</v>
       </c>
-      <c r="E197" s="6">
+      <c r="D197" s="6">
         <v>0.82657943700000003</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>576</v>
       </c>
@@ -3859,16 +3265,13 @@
         <v>0.324600732</v>
       </c>
       <c r="C198" s="7">
-        <v>6.6784596000000002E-2</v>
-      </c>
-      <c r="D198" s="7">
         <v>0.100577663</v>
       </c>
-      <c r="E198" s="6">
+      <c r="D198" s="6">
         <v>0.82313057599999995</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>577</v>
       </c>
@@ -3876,16 +3279,13 @@
         <v>0.32824554</v>
       </c>
       <c r="C199" s="7">
-        <v>9.5997153000000002E-2</v>
-      </c>
-      <c r="D199" s="7">
         <v>0.13540295699999999</v>
       </c>
-      <c r="E199" s="6">
+      <c r="D199" s="6">
         <v>0.82291272400000004</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>578</v>
       </c>
@@ -3893,16 +3293,13 @@
         <v>0.33164706100000002</v>
       </c>
       <c r="C200" s="7">
-        <v>0.116497923</v>
-      </c>
-      <c r="D200" s="7">
         <v>0.15822144099999999</v>
       </c>
-      <c r="E200" s="6">
+      <c r="D200" s="6">
         <v>0.82485304299999995</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>579</v>
       </c>
@@ -3910,16 +3307,13 @@
         <v>0.33450905399999997</v>
       </c>
       <c r="C201" s="7">
-        <v>0.123867554</v>
-      </c>
-      <c r="D201" s="7">
         <v>0.16270216300000001</v>
       </c>
-      <c r="E201" s="6">
+      <c r="D201" s="6">
         <v>0.83035525499999996</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>580</v>
       </c>
@@ -3927,16 +3321,13 @@
         <v>0.33693131399999998</v>
       </c>
       <c r="C202" s="7">
-        <v>0.120857954</v>
-      </c>
-      <c r="D202" s="7">
         <v>0.15679549500000001</v>
       </c>
-      <c r="E202" s="6">
+      <c r="D202" s="6">
         <v>0.84083066299999998</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>581</v>
       </c>
@@ -3944,16 +3335,13 @@
         <v>0.33932462299999999</v>
       </c>
       <c r="C203" s="7">
-        <v>0.106135408</v>
-      </c>
-      <c r="D203" s="7">
         <v>0.14479805900000001</v>
       </c>
-      <c r="E203" s="6">
+      <c r="D203" s="6">
         <v>0.85232492199999998</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>582</v>
       </c>
@@ -3961,16 +3349,13 @@
         <v>0.34188020000000002</v>
       </c>
       <c r="C204" s="7">
-        <v>0.10676652</v>
-      </c>
-      <c r="D204" s="7">
         <v>0.16211059799999999</v>
       </c>
-      <c r="E204" s="6">
+      <c r="D204" s="6">
         <v>0.86195490600000002</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>583</v>
       </c>
@@ -3978,16 +3363,13 @@
         <v>0.34519398600000001</v>
       </c>
       <c r="C205" s="7">
-        <v>0.113822705</v>
-      </c>
-      <c r="D205" s="7">
         <v>0.18913524800000001</v>
       </c>
-      <c r="E205" s="6">
+      <c r="D205" s="6">
         <v>0.86849975999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>584</v>
       </c>
@@ -3995,16 +3377,13 @@
         <v>0.34750814699999999</v>
       </c>
       <c r="C206" s="7">
-        <v>0.114560194</v>
-      </c>
-      <c r="D206" s="7">
         <v>0.20054953</v>
       </c>
-      <c r="E206" s="6">
+      <c r="D206" s="6">
         <v>0.86435554699999995</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>585</v>
       </c>
@@ -4012,16 +3391,13 @@
         <v>0.35024185099999999</v>
       </c>
       <c r="C207" s="7">
-        <v>0.11909236400000001</v>
-      </c>
-      <c r="D207" s="7">
         <v>0.19434305499999999</v>
       </c>
-      <c r="E207" s="6">
+      <c r="D207" s="6">
         <v>0.85753204400000005</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>586</v>
       </c>
@@ -4029,16 +3405,13 @@
         <v>0.35424839499999999</v>
       </c>
       <c r="C208" s="7">
-        <v>0.13961723300000001</v>
-      </c>
-      <c r="D208" s="7">
         <v>0.19167161799999999</v>
       </c>
-      <c r="E208" s="6">
+      <c r="D208" s="6">
         <v>0.85426043200000001</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>587</v>
       </c>
@@ -4046,16 +3419,13 @@
         <v>0.356467706</v>
       </c>
       <c r="C209" s="7">
-        <v>0.158089697</v>
-      </c>
-      <c r="D209" s="7">
         <v>0.196174549</v>
       </c>
-      <c r="E209" s="6">
+      <c r="D209" s="6">
         <v>0.83815380900000003</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>588</v>
       </c>
@@ -4063,16 +3433,13 @@
         <v>0.35995661099999998</v>
       </c>
       <c r="C210" s="7">
-        <v>0.14467621999999999</v>
-      </c>
-      <c r="D210" s="7">
         <v>0.19085875099999999</v>
       </c>
-      <c r="E210" s="6">
+      <c r="D210" s="6">
         <v>0.80766433800000004</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>589</v>
       </c>
@@ -4080,16 +3447,13 @@
         <v>0.36290105</v>
       </c>
       <c r="C211" s="7">
-        <v>0.114492341</v>
-      </c>
-      <c r="D211" s="7">
         <v>0.17441931899999999</v>
       </c>
-      <c r="E211" s="6">
+      <c r="D211" s="6">
         <v>0.78308562900000001</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>590</v>
       </c>
@@ -4097,16 +3461,13 @@
         <v>0.36531852500000001</v>
       </c>
       <c r="C212" s="7">
-        <v>9.4578385000000001E-2</v>
-      </c>
-      <c r="D212" s="7">
         <v>0.152684403</v>
       </c>
-      <c r="E212" s="6">
+      <c r="D212" s="6">
         <v>0.78292299600000004</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>591</v>
       </c>
@@ -4114,16 +3475,13 @@
         <v>0.36868348000000001</v>
       </c>
       <c r="C213" s="7">
-        <v>9.8913511999999995E-2</v>
-      </c>
-      <c r="D213" s="7">
         <v>0.134811614</v>
       </c>
-      <c r="E213" s="6">
+      <c r="D213" s="6">
         <v>0.797005607</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>592</v>
       </c>
@@ -4131,16 +3489,13 @@
         <v>0.37182208700000002</v>
       </c>
       <c r="C214" s="7">
-        <v>0.113121923</v>
-      </c>
-      <c r="D214" s="7">
         <v>0.120359824</v>
       </c>
-      <c r="E214" s="6">
+      <c r="D214" s="6">
         <v>0.80526861199999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>593</v>
       </c>
@@ -4148,16 +3503,13 @@
         <v>0.37478589499999998</v>
       </c>
       <c r="C215" s="7">
-        <v>0.115555909</v>
-      </c>
-      <c r="D215" s="7">
         <v>0.107474772</v>
       </c>
-      <c r="E215" s="6">
+      <c r="D215" s="6">
         <v>0.80516923200000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>594</v>
       </c>
@@ -4165,16 +3517,13 @@
         <v>0.37766536899999997</v>
       </c>
       <c r="C216" s="7">
-        <v>9.3806552000000001E-2</v>
-      </c>
-      <c r="D216" s="7">
         <v>9.3381421000000006E-2</v>
       </c>
-      <c r="E216" s="6">
+      <c r="D216" s="6">
         <v>0.80135054699999997</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>595</v>
       </c>
@@ -4182,16 +3531,13 @@
         <v>0.38022918</v>
       </c>
       <c r="C217" s="7">
-        <v>6.6912612999999996E-2</v>
-      </c>
-      <c r="D217" s="7">
         <v>8.1141864999999994E-2</v>
       </c>
-      <c r="E217" s="6">
+      <c r="D217" s="6">
         <v>0.79959056799999995</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>596</v>
       </c>
@@ -4199,16 +3545,13 @@
         <v>0.38242860899999997</v>
       </c>
       <c r="C218" s="7">
-        <v>5.3312150000000003E-2</v>
-      </c>
-      <c r="D218" s="7">
         <v>7.5241875999999999E-2</v>
       </c>
-      <c r="E218" s="6">
+      <c r="D218" s="6">
         <v>0.80051966799999996</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>597</v>
       </c>
@@ -4216,16 +3559,13 @@
         <v>0.38630485399999998</v>
       </c>
       <c r="C219" s="7">
-        <v>5.6250230999999998E-2</v>
-      </c>
-      <c r="D219" s="7">
         <v>7.5399648E-2</v>
       </c>
-      <c r="E219" s="6">
+      <c r="D219" s="6">
         <v>0.80098765800000005</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>598</v>
       </c>
@@ -4233,16 +3573,13 @@
         <v>0.38990328099999999</v>
       </c>
       <c r="C220" s="7">
-        <v>6.7862547999999995E-2</v>
-      </c>
-      <c r="D220" s="7">
         <v>7.8305366000000001E-2</v>
       </c>
-      <c r="E220" s="6">
+      <c r="D220" s="6">
         <v>0.79910314000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>599</v>
       </c>
@@ -4250,16 +3587,13 @@
         <v>0.39161267300000002</v>
       </c>
       <c r="C221" s="7">
-        <v>7.7610967000000003E-2</v>
-      </c>
-      <c r="D221" s="7">
         <v>8.1141388999999994E-2</v>
       </c>
-      <c r="E221" s="6">
+      <c r="D221" s="6">
         <v>0.79423110299999999</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>600</v>
       </c>
@@ -4267,16 +3601,13 @@
         <v>0.39432655999999999</v>
       </c>
       <c r="C222" s="7">
-        <v>7.1502499999999997E-2</v>
-      </c>
-      <c r="D222" s="7">
         <v>8.0472252999999994E-2</v>
       </c>
-      <c r="E222" s="6">
+      <c r="D222" s="6">
         <v>0.79010188699999995</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>601</v>
       </c>
@@ -4284,16 +3615,13 @@
         <v>0.39821023900000002</v>
       </c>
       <c r="C223" s="7">
-        <v>5.6259368999999997E-2</v>
-      </c>
-      <c r="D223" s="7">
         <v>7.7497593000000004E-2</v>
       </c>
-      <c r="E223" s="6">
+      <c r="D223" s="6">
         <v>0.78838279700000002</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>602</v>
       </c>
@@ -4301,16 +3629,13 @@
         <v>0.40105643499999999</v>
       </c>
       <c r="C224" s="7">
-        <v>4.1746824000000002E-2</v>
-      </c>
-      <c r="D224" s="7">
         <v>7.4615661E-2</v>
       </c>
-      <c r="E224" s="6">
+      <c r="D224" s="6">
         <v>0.78948394</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>603</v>
       </c>
@@ -4318,16 +3643,13 @@
         <v>0.40372735700000001</v>
       </c>
       <c r="C225" s="7">
-        <v>3.6300702999999997E-2</v>
-      </c>
-      <c r="D225" s="7">
         <v>7.4569785E-2</v>
       </c>
-      <c r="E225" s="6">
+      <c r="D225" s="6">
         <v>0.79481265400000001</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>604</v>
       </c>
@@ -4335,16 +3657,13 @@
         <v>0.407138887</v>
       </c>
       <c r="C226" s="7">
-        <v>3.6431720000000001E-2</v>
-      </c>
-      <c r="D226" s="7">
         <v>7.6011404000000005E-2</v>
       </c>
-      <c r="E226" s="6">
+      <c r="D226" s="6">
         <v>0.80093951299999999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>605</v>
       </c>
@@ -4352,16 +3671,13 @@
         <v>0.40991675999999999</v>
       </c>
       <c r="C227" s="7">
-        <v>4.1495026999999997E-2</v>
-      </c>
-      <c r="D227" s="7">
         <v>7.8856861E-2</v>
       </c>
-      <c r="E227" s="6">
+      <c r="D227" s="6">
         <v>0.80148334899999996</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>606</v>
       </c>
@@ -4369,16 +3685,13 @@
         <v>0.41317542200000001</v>
       </c>
       <c r="C228" s="7">
-        <v>5.3193309000000001E-2</v>
-      </c>
-      <c r="D228" s="7">
         <v>8.3616151999999999E-2</v>
       </c>
-      <c r="E228" s="6">
+      <c r="D228" s="6">
         <v>0.80094117099999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>607</v>
       </c>
@@ -4386,16 +3699,13 @@
         <v>0.41586032000000001</v>
       </c>
       <c r="C229" s="7">
-        <v>7.5655548000000003E-2</v>
-      </c>
-      <c r="D229" s="7">
         <v>9.0999466000000001E-2</v>
       </c>
-      <c r="E229" s="6">
+      <c r="D229" s="6">
         <v>0.79896415600000004</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>608</v>
       </c>
@@ -4403,16 +3713,13 @@
         <v>0.41937444699999998</v>
       </c>
       <c r="C230" s="7">
-        <v>0.13751474599999999</v>
-      </c>
-      <c r="D230" s="7">
         <v>0.108086311</v>
       </c>
-      <c r="E230" s="6">
+      <c r="D230" s="6">
         <v>0.79681769000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>609</v>
       </c>
@@ -4420,16 +3727,13 @@
         <v>0.42177998500000002</v>
       </c>
       <c r="C231" s="7">
-        <v>0.36468572999999999</v>
-      </c>
-      <c r="D231" s="7">
         <v>0.16907456900000001</v>
       </c>
-      <c r="E231" s="6">
+      <c r="D231" s="6">
         <v>0.79364052200000001</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>610</v>
       </c>
@@ -4437,16 +3741,13 @@
         <v>0.42501151199999998</v>
       </c>
       <c r="C232" s="7">
-        <v>0.73330472300000005</v>
-      </c>
-      <c r="D232" s="7">
         <v>0.26840509899999998</v>
       </c>
-      <c r="E232" s="6">
+      <c r="D232" s="6">
         <v>0.79421834599999996</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>611</v>
       </c>
@@ -4454,16 +3755,13 @@
         <v>0.42788090600000001</v>
       </c>
       <c r="C233" s="7">
-        <v>1</v>
-      </c>
-      <c r="D233" s="7">
         <v>0.341439414</v>
       </c>
-      <c r="E233" s="6">
+      <c r="D233" s="6">
         <v>0.79495907600000004</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>612</v>
       </c>
@@ -4471,16 +3769,13 @@
         <v>0.43151209000000001</v>
       </c>
       <c r="C234" s="7">
-        <v>0.91766961999999996</v>
-      </c>
-      <c r="D234" s="7">
         <v>0.32277471200000002</v>
       </c>
-      <c r="E234" s="6">
+      <c r="D234" s="6">
         <v>0.793157322</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>613</v>
       </c>
@@ -4488,16 +3783,13 @@
         <v>0.434273568</v>
       </c>
       <c r="C235" s="7">
-        <v>0.66818424499999995</v>
-      </c>
-      <c r="D235" s="7">
         <v>0.26062247999999999</v>
       </c>
-      <c r="E235" s="6">
+      <c r="D235" s="6">
         <v>0.78878715300000002</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>614</v>
       </c>
@@ -4505,16 +3797,13 @@
         <v>0.43763938400000002</v>
       </c>
       <c r="C236" s="7">
-        <v>0.46108876300000001</v>
-      </c>
-      <c r="D236" s="7">
         <v>0.21306661800000001</v>
       </c>
-      <c r="E236" s="6">
+      <c r="D236" s="6">
         <v>0.78637025599999999</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>615</v>
       </c>
@@ -4522,16 +3811,13 @@
         <v>0.44110608499999998</v>
       </c>
       <c r="C237" s="7">
-        <v>0.33052030799999998</v>
-      </c>
-      <c r="D237" s="7">
         <v>0.19045727100000001</v>
       </c>
-      <c r="E237" s="6">
+      <c r="D237" s="6">
         <v>0.78184284699999995</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>616</v>
       </c>
@@ -4539,16 +3825,13 @@
         <v>0.444465901</v>
       </c>
       <c r="C238" s="7">
-        <v>0.22644086399999999</v>
-      </c>
-      <c r="D238" s="7">
         <v>0.177335832</v>
       </c>
-      <c r="E238" s="6">
+      <c r="D238" s="6">
         <v>0.77939650299999996</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>617</v>
       </c>
@@ -4556,16 +3839,13 @@
         <v>0.446646722</v>
       </c>
       <c r="C239" s="7">
-        <v>0.157473895</v>
-      </c>
-      <c r="D239" s="7">
         <v>0.175292326</v>
       </c>
-      <c r="E239" s="6">
+      <c r="D239" s="6">
         <v>0.78046737899999996</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>618</v>
       </c>
@@ -4573,16 +3853,13 @@
         <v>0.45049088799999998</v>
       </c>
       <c r="C240" s="7">
-        <v>0.12496214</v>
-      </c>
-      <c r="D240" s="7">
         <v>0.18689307699999999</v>
       </c>
-      <c r="E240" s="6">
+      <c r="D240" s="6">
         <v>0.79032647899999997</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>619</v>
       </c>
@@ -4590,16 +3867,13 @@
         <v>0.45338614599999999</v>
       </c>
       <c r="C241" s="7">
-        <v>0.115670202</v>
-      </c>
-      <c r="D241" s="7">
         <v>0.20594261699999999</v>
       </c>
-      <c r="E241" s="6">
+      <c r="D241" s="6">
         <v>0.79653523000000004</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>620</v>
       </c>
@@ -4607,16 +3881,13 @@
         <v>0.45590978799999998</v>
       </c>
       <c r="C242" s="7">
-        <v>0.11423074799999999</v>
-      </c>
-      <c r="D242" s="7">
         <v>0.221832898</v>
       </c>
-      <c r="E242" s="6">
+      <c r="D242" s="6">
         <v>0.79751393999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>621</v>
       </c>
@@ -4624,16 +3895,13 @@
         <v>0.46045465699999999</v>
       </c>
       <c r="C243" s="7">
-        <v>0.111559768</v>
-      </c>
-      <c r="D243" s="7">
         <v>0.22209574000000001</v>
       </c>
-      <c r="E243" s="6">
+      <c r="D243" s="6">
         <v>0.79633037399999995</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>622</v>
       </c>
@@ -4641,16 +3909,13 @@
         <v>0.46387882499999999</v>
       </c>
       <c r="C244" s="7">
-        <v>0.105803091</v>
-      </c>
-      <c r="D244" s="7">
         <v>0.207006886</v>
       </c>
-      <c r="E244" s="6">
+      <c r="D244" s="6">
         <v>0.79054245199999995</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>623</v>
       </c>
@@ -4658,16 +3923,13 @@
         <v>0.46665383500000002</v>
       </c>
       <c r="C245" s="7">
-        <v>0.100184997</v>
-      </c>
-      <c r="D245" s="7">
         <v>0.18807228200000001</v>
       </c>
-      <c r="E245" s="6">
+      <c r="D245" s="6">
         <v>0.78203910700000001</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>624</v>
       </c>
@@ -4675,16 +3937,13 @@
         <v>0.469467937</v>
       </c>
       <c r="C246" s="7">
-        <v>9.5827125999999999E-2</v>
-      </c>
-      <c r="D246" s="7">
         <v>0.17094304900000001</v>
       </c>
-      <c r="E246" s="6">
+      <c r="D246" s="6">
         <v>0.77340553099999998</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>625</v>
       </c>
@@ -4692,16 +3951,13 @@
         <v>0.47312690400000001</v>
       </c>
       <c r="C247" s="7">
-        <v>9.1065167000000002E-2</v>
-      </c>
-      <c r="D247" s="7">
         <v>0.154740075</v>
       </c>
-      <c r="E247" s="6">
+      <c r="D247" s="6">
         <v>0.76955355000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>626</v>
       </c>
@@ -4709,16 +3965,13 @@
         <v>0.47630852299999998</v>
       </c>
       <c r="C248" s="7">
-        <v>8.7119542999999994E-2</v>
-      </c>
-      <c r="D248" s="7">
         <v>0.139519476</v>
       </c>
-      <c r="E248" s="6">
+      <c r="D248" s="6">
         <v>0.76317970999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>627</v>
       </c>
@@ -4726,16 +3979,13 @@
         <v>0.47926952699999997</v>
       </c>
       <c r="C249" s="7">
-        <v>8.6040825000000001E-2</v>
-      </c>
-      <c r="D249" s="7">
         <v>0.12844197700000001</v>
       </c>
-      <c r="E249" s="6">
+      <c r="D249" s="6">
         <v>0.75154598900000003</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>628</v>
       </c>
@@ -4743,16 +3993,13 @@
         <v>0.48309954500000002</v>
       </c>
       <c r="C250" s="7">
-        <v>9.3975990999999995E-2</v>
-      </c>
-      <c r="D250" s="7">
         <v>0.12439494</v>
       </c>
-      <c r="E250" s="6">
+      <c r="D250" s="6">
         <v>0.74329940299999997</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>629</v>
       </c>
@@ -4760,16 +4007,13 @@
         <v>0.48638330899999999</v>
       </c>
       <c r="C251" s="7">
-        <v>0.115756895</v>
-      </c>
-      <c r="D251" s="7">
         <v>0.12579617800000001</v>
       </c>
-      <c r="E251" s="6">
+      <c r="D251" s="6">
         <v>0.74146717799999995</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>630</v>
       </c>
@@ -4777,16 +4021,13 @@
         <v>0.48908891300000001</v>
       </c>
       <c r="C252" s="7">
-        <v>0.14444510699999999</v>
-      </c>
-      <c r="D252" s="7">
         <v>0.13058076900000001</v>
       </c>
-      <c r="E252" s="6">
+      <c r="D252" s="6">
         <v>0.74468671600000003</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>631</v>
       </c>
@@ -4794,16 +4035,13 @@
         <v>0.49216444399999998</v>
       </c>
       <c r="C253" s="7">
-        <v>0.13907821200000001</v>
-      </c>
-      <c r="D253" s="7">
         <v>0.12725958200000001</v>
       </c>
-      <c r="E253" s="6">
+      <c r="D253" s="6">
         <v>0.75022866399999999</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>632</v>
       </c>
@@ -4811,16 +4049,13 @@
         <v>0.495931813</v>
       </c>
       <c r="C254" s="7">
-        <v>0.103933873</v>
-      </c>
-      <c r="D254" s="7">
         <v>0.116499201</v>
       </c>
-      <c r="E254" s="6">
+      <c r="D254" s="6">
         <v>0.75872811500000004</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>633</v>
       </c>
@@ -4828,16 +4063,13 @@
         <v>0.49940893600000003</v>
       </c>
       <c r="C255" s="7">
-        <v>5.9345684000000003E-2</v>
-      </c>
-      <c r="D255" s="7">
         <v>0.10280900699999999</v>
       </c>
-      <c r="E255" s="6">
+      <c r="D255" s="6">
         <v>0.76568666100000005</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>634</v>
       </c>
@@ -4845,16 +4077,13 @@
         <v>0.50204420699999996</v>
       </c>
       <c r="C256" s="7">
-        <v>3.6293471000000001E-2</v>
-      </c>
-      <c r="D256" s="7">
         <v>9.5087194999999999E-2</v>
       </c>
-      <c r="E256" s="6">
+      <c r="D256" s="6">
         <v>0.77116119100000002</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>635</v>
       </c>
@@ -4862,16 +4091,13 @@
         <v>0.50564911599999995</v>
       </c>
       <c r="C257" s="7">
-        <v>2.5097049E-2</v>
-      </c>
-      <c r="D257" s="7">
         <v>9.0984244000000006E-2</v>
       </c>
-      <c r="E257" s="6">
+      <c r="D257" s="6">
         <v>0.77612014100000004</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>636</v>
       </c>
@@ -4879,16 +4105,13 @@
         <v>0.50949192099999996</v>
       </c>
       <c r="C258" s="7">
-        <v>2.0367122000000001E-2</v>
-      </c>
-      <c r="D258" s="7">
         <v>8.8713729000000005E-2</v>
       </c>
-      <c r="E258" s="6">
+      <c r="D258" s="6">
         <v>0.78278827299999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>637</v>
       </c>
@@ -4896,16 +4119,13 @@
         <v>0.51294186900000005</v>
       </c>
       <c r="C259" s="7">
-        <v>1.7729589E-2</v>
-      </c>
-      <c r="D259" s="7">
         <v>8.7074520000000002E-2</v>
       </c>
-      <c r="E259" s="6">
+      <c r="D259" s="6">
         <v>0.78917440599999999</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>638</v>
       </c>
@@ -4913,16 +4133,13 @@
         <v>0.51670995200000003</v>
       </c>
       <c r="C260" s="7">
-        <v>1.5750323E-2</v>
-      </c>
-      <c r="D260" s="7">
         <v>8.5839176000000003E-2</v>
       </c>
-      <c r="E260" s="6">
+      <c r="D260" s="6">
         <v>0.79297009500000004</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>639</v>
       </c>
@@ -4930,16 +4147,13 @@
         <v>0.51917068</v>
       </c>
       <c r="C261" s="7">
-        <v>1.4541834E-2</v>
-      </c>
-      <c r="D261" s="7">
         <v>8.4847912999999997E-2</v>
       </c>
-      <c r="E261" s="6">
+      <c r="D261" s="6">
         <v>0.79034112099999998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>640</v>
       </c>
@@ -4947,16 +4161,13 @@
         <v>0.52245734200000005</v>
       </c>
       <c r="C262" s="7">
-        <v>1.4105636E-2</v>
-      </c>
-      <c r="D262" s="7">
         <v>8.4269083999999994E-2</v>
       </c>
-      <c r="E262" s="6">
+      <c r="D262" s="6">
         <v>0.78708731700000001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>641</v>
       </c>
@@ -4964,16 +4175,13 @@
         <v>0.52587325799999995</v>
       </c>
       <c r="C263" s="7">
-        <v>1.4106407E-2</v>
-      </c>
-      <c r="D263" s="7">
         <v>8.4114271000000004E-2</v>
       </c>
-      <c r="E263" s="6">
+      <c r="D263" s="6">
         <v>0.78685266099999995</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>642</v>
       </c>
@@ -4981,16 +4189,13 @@
         <v>0.528776036</v>
       </c>
       <c r="C264" s="7">
-        <v>1.4581739E-2</v>
-      </c>
-      <c r="D264" s="7">
         <v>8.4396988000000006E-2</v>
       </c>
-      <c r="E264" s="6">
+      <c r="D264" s="6">
         <v>0.78837401600000001</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>643</v>
       </c>
@@ -4998,16 +4203,13 @@
         <v>0.53252929599999999</v>
       </c>
       <c r="C265" s="7">
-        <v>1.5287637E-2</v>
-      </c>
-      <c r="D265" s="7">
         <v>8.4885572000000006E-2</v>
       </c>
-      <c r="E265" s="6">
+      <c r="D265" s="6">
         <v>0.79074265200000005</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>644</v>
       </c>
@@ -5015,16 +4217,13 @@
         <v>0.53517857899999999</v>
       </c>
       <c r="C266" s="7">
-        <v>1.5759003000000001E-2</v>
-      </c>
-      <c r="D266" s="7">
         <v>8.4961560000000005E-2</v>
       </c>
-      <c r="E266" s="6">
+      <c r="D266" s="6">
         <v>0.787522312</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>645</v>
       </c>
@@ -5032,16 +4231,13 @@
         <v>0.53883513100000002</v>
       </c>
       <c r="C267" s="7">
-        <v>1.5852549000000001E-2</v>
-      </c>
-      <c r="D267" s="7">
         <v>8.4846766000000004E-2</v>
       </c>
-      <c r="E267" s="6">
+      <c r="D267" s="6">
         <v>0.78030224800000003</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>646</v>
       </c>
@@ -5049,16 +4245,13 @@
         <v>0.54171357899999995</v>
       </c>
       <c r="C268" s="7">
-        <v>1.5531168999999999E-2</v>
-      </c>
-      <c r="D268" s="7">
         <v>8.4208748999999999E-2</v>
       </c>
-      <c r="E268" s="6">
+      <c r="D268" s="6">
         <v>0.77050786999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>647</v>
       </c>
@@ -5066,16 +4259,13 @@
         <v>0.545643349</v>
       </c>
       <c r="C269" s="7">
-        <v>1.6188971999999999E-2</v>
-      </c>
-      <c r="D269" s="7">
         <v>8.3674091000000006E-2</v>
       </c>
-      <c r="E269" s="6">
+      <c r="D269" s="6">
         <v>0.76202213299999999</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>648</v>
       </c>
@@ -5083,16 +4273,13 @@
         <v>0.54942039099999995</v>
       </c>
       <c r="C270" s="7">
-        <v>2.0484068000000001E-2</v>
-      </c>
-      <c r="D270" s="7">
         <v>8.4081648999999994E-2</v>
       </c>
-      <c r="E270" s="6">
+      <c r="D270" s="6">
         <v>0.75568231600000002</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>649</v>
       </c>
@@ -5100,16 +4287,13 @@
         <v>0.55189343199999996</v>
       </c>
       <c r="C271" s="7">
-        <v>3.2066116999999998E-2</v>
-      </c>
-      <c r="D271" s="7">
         <v>8.5879747000000006E-2</v>
       </c>
-      <c r="E271" s="6">
+      <c r="D271" s="6">
         <v>0.75525349200000003</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>650</v>
       </c>
@@ -5117,16 +4301,13 @@
         <v>0.55421621200000004</v>
       </c>
       <c r="C272" s="7">
-        <v>4.0198175000000003E-2</v>
-      </c>
-      <c r="D272" s="7">
         <v>8.6185762999999999E-2</v>
       </c>
-      <c r="E272" s="6">
+      <c r="D272" s="6">
         <v>0.75786394000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>651</v>
       </c>
@@ -5134,16 +4315,13 @@
         <v>0.55745053099999997</v>
       </c>
       <c r="C273" s="7">
-        <v>4.0475519000000001E-2</v>
-      </c>
-      <c r="D273" s="7">
         <v>8.4216392000000001E-2</v>
       </c>
-      <c r="E273" s="6">
+      <c r="D273" s="6">
         <v>0.76349421799999995</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>652</v>
       </c>
@@ -5151,16 +4329,13 @@
         <v>0.56203259999999999</v>
       </c>
       <c r="C274" s="7">
-        <v>3.2675888E-2</v>
-      </c>
-      <c r="D274" s="7">
         <v>8.0444696999999996E-2</v>
       </c>
-      <c r="E274" s="6">
+      <c r="D274" s="6">
         <v>0.76814428499999998</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>653</v>
       </c>
@@ -5168,16 +4343,13 @@
         <v>0.56512362199999999</v>
       </c>
       <c r="C275" s="7">
-        <v>2.5428809E-2</v>
-      </c>
-      <c r="D275" s="7">
         <v>7.6900268999999993E-2</v>
       </c>
-      <c r="E275" s="6">
+      <c r="D275" s="6">
         <v>0.76649499600000004</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>654</v>
       </c>
@@ -5185,16 +4357,13 @@
         <v>0.56815091699999998</v>
       </c>
       <c r="C276" s="7">
-        <v>1.9385992000000001E-2</v>
-      </c>
-      <c r="D276" s="7">
         <v>7.3513007000000005E-2</v>
       </c>
-      <c r="E276" s="6">
+      <c r="D276" s="6">
         <v>0.74999752500000005</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>655</v>
       </c>
@@ -5202,16 +4371,13 @@
         <v>0.57188710799999998</v>
       </c>
       <c r="C277" s="7">
-        <v>1.4581726999999999E-2</v>
-      </c>
-      <c r="D277" s="7">
         <v>7.0629694000000007E-2</v>
       </c>
-      <c r="E277" s="6">
+      <c r="D277" s="6">
         <v>0.71804913500000001</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>656</v>
       </c>
@@ -5219,16 +4385,13 @@
         <v>0.574987735</v>
       </c>
       <c r="C278" s="7">
-        <v>1.3098087E-2</v>
-      </c>
-      <c r="D278" s="7">
         <v>6.8529214000000005E-2</v>
       </c>
-      <c r="E278" s="6">
+      <c r="D278" s="6">
         <v>0.70452246900000004</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>657</v>
       </c>
@@ -5236,16 +4399,13 @@
         <v>0.57788198000000002</v>
       </c>
       <c r="C279" s="7">
-        <v>1.2988599999999999E-2</v>
-      </c>
-      <c r="D279" s="7">
         <v>6.6644334E-2</v>
       </c>
-      <c r="E279" s="6">
+      <c r="D279" s="6">
         <v>0.716093761</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>658</v>
       </c>
@@ -5253,16 +4413,13 @@
         <v>0.58242649400000002</v>
       </c>
       <c r="C280" s="7">
-        <v>1.2395312E-2</v>
-      </c>
-      <c r="D280" s="7">
         <v>6.5157779999999998E-2</v>
       </c>
-      <c r="E280" s="6">
+      <c r="D280" s="6">
         <v>0.74662278100000001</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>659</v>
       </c>
@@ -5270,16 +4427,13 @@
         <v>0.58535157900000001</v>
       </c>
       <c r="C281" s="7">
-        <v>1.1107389E-2</v>
-      </c>
-      <c r="D281" s="7">
         <v>6.3482094000000003E-2</v>
       </c>
-      <c r="E281" s="6">
+      <c r="D281" s="6">
         <v>0.76423014499999997</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>660</v>
       </c>
@@ -5287,16 +4441,13 @@
         <v>0.58829540599999997</v>
       </c>
       <c r="C282" s="7">
-        <v>1.2667070000000001E-2</v>
-      </c>
-      <c r="D282" s="7">
         <v>6.2884318999999994E-2</v>
       </c>
-      <c r="E282" s="6">
+      <c r="D282" s="6">
         <v>0.77472942899999997</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>661</v>
       </c>
@@ -5304,16 +4455,13 @@
         <v>0.59145532199999995</v>
       </c>
       <c r="C283" s="7">
-        <v>1.9620535000000001E-2</v>
-      </c>
-      <c r="D283" s="7">
         <v>6.4150296999999995E-2</v>
       </c>
-      <c r="E283" s="6">
+      <c r="D283" s="6">
         <v>0.78100080000000005</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>662</v>
       </c>
@@ -5321,16 +4469,13 @@
         <v>0.59526084499999998</v>
       </c>
       <c r="C284" s="7">
-        <v>2.5688876999999999E-2</v>
-      </c>
-      <c r="D284" s="7">
         <v>6.5164364000000002E-2</v>
       </c>
-      <c r="E284" s="6">
+      <c r="D284" s="6">
         <v>0.78337022700000003</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>663</v>
       </c>
@@ -5338,16 +4483,13 @@
         <v>0.59798006599999998</v>
       </c>
       <c r="C285" s="7">
-        <v>2.4342889999999999E-2</v>
-      </c>
-      <c r="D285" s="7">
         <v>6.4285208999999996E-2</v>
       </c>
-      <c r="E285" s="6">
+      <c r="D285" s="6">
         <v>0.78097338500000002</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>664</v>
       </c>
@@ -5355,16 +4497,13 @@
         <v>0.60165181199999995</v>
       </c>
       <c r="C286" s="7">
-        <v>1.8907507E-2</v>
-      </c>
-      <c r="D286" s="7">
         <v>6.2869499999999995E-2</v>
       </c>
-      <c r="E286" s="6">
+      <c r="D286" s="6">
         <v>0.78095255399999997</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>665</v>
       </c>
@@ -5372,16 +4511,13 @@
         <v>0.60445992900000001</v>
       </c>
       <c r="C287" s="7">
-        <v>1.4506122999999999E-2</v>
-      </c>
-      <c r="D287" s="7">
         <v>6.1981199000000001E-2</v>
       </c>
-      <c r="E287" s="6">
+      <c r="D287" s="6">
         <v>0.77995382199999996</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>666</v>
       </c>
@@ -5389,16 +4525,13 @@
         <v>0.60793783899999998</v>
       </c>
       <c r="C288" s="7">
-        <v>1.3267154999999999E-2</v>
-      </c>
-      <c r="D288" s="7">
         <v>6.2088435999999997E-2</v>
       </c>
-      <c r="E288" s="6">
+      <c r="D288" s="6">
         <v>0.77982547300000005</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>667</v>
       </c>
@@ -5406,16 +4539,13 @@
         <v>0.61223640300000004</v>
       </c>
       <c r="C289" s="7">
-        <v>1.3116875E-2</v>
-      </c>
-      <c r="D289" s="7">
         <v>6.2322480999999999E-2</v>
       </c>
-      <c r="E289" s="6">
+      <c r="D289" s="6">
         <v>0.77976966800000003</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>668</v>
       </c>
@@ -5423,16 +4553,13 @@
         <v>0.61572037899999998</v>
       </c>
       <c r="C290" s="7">
-        <v>1.2801534999999999E-2</v>
-      </c>
-      <c r="D290" s="7">
         <v>6.1464559000000002E-2</v>
       </c>
-      <c r="E290" s="6">
+      <c r="D290" s="6">
         <v>0.779650281</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>669</v>
       </c>
@@ -5440,16 +4567,13 @@
         <v>0.61894618899999998</v>
       </c>
       <c r="C291" s="7">
-        <v>1.2023623000000001E-2</v>
-      </c>
-      <c r="D291" s="7">
         <v>5.9504432000000003E-2</v>
       </c>
-      <c r="E291" s="6">
+      <c r="D291" s="6">
         <v>0.77851051800000004</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>670</v>
       </c>
@@ -5457,16 +4581,13 @@
         <v>0.62248403799999996</v>
       </c>
       <c r="C292" s="7">
-        <v>1.1173641999999999E-2</v>
-      </c>
-      <c r="D292" s="7">
         <v>5.7484871999999999E-2</v>
       </c>
-      <c r="E292" s="6">
+      <c r="D292" s="6">
         <v>0.77607504800000005</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>671</v>
       </c>
@@ -5474,16 +4595,13 @@
         <v>0.62516750600000004</v>
       </c>
       <c r="C293" s="7">
-        <v>1.0467123E-2</v>
-      </c>
-      <c r="D293" s="7">
         <v>5.5657628000000001E-2</v>
       </c>
-      <c r="E293" s="6">
+      <c r="D293" s="6">
         <v>0.77143614999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>672</v>
       </c>
@@ -5491,16 +4609,13 @@
         <v>0.62836957900000001</v>
       </c>
       <c r="C294" s="7">
-        <v>9.7275899999999995E-3</v>
-      </c>
-      <c r="D294" s="7">
         <v>5.4110872999999997E-2</v>
       </c>
-      <c r="E294" s="6">
+      <c r="D294" s="6">
         <v>0.76962887499999999</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>673</v>
       </c>
@@ -5508,16 +4623,13 @@
         <v>0.63016876300000002</v>
       </c>
       <c r="C295" s="7">
-        <v>8.9718130000000004E-3</v>
-      </c>
-      <c r="D295" s="7">
         <v>5.2558765E-2</v>
       </c>
-      <c r="E295" s="6">
+      <c r="D295" s="6">
         <v>0.76703133700000004</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>674</v>
       </c>
@@ -5525,16 +4637,13 @@
         <v>0.63398038899999998</v>
       </c>
       <c r="C296" s="7">
-        <v>8.5425039999999994E-3</v>
-      </c>
-      <c r="D296" s="7">
         <v>5.1288930000000003E-2</v>
       </c>
-      <c r="E296" s="6">
+      <c r="D296" s="6">
         <v>0.76694249699999995</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>675</v>
       </c>
@@ -5542,16 +4651,13 @@
         <v>0.63781016099999999</v>
       </c>
       <c r="C297" s="7">
-        <v>8.4389259999999994E-3</v>
-      </c>
-      <c r="D297" s="7">
         <v>5.0442155000000002E-2</v>
       </c>
-      <c r="E297" s="6">
+      <c r="D297" s="6">
         <v>0.76762129499999998</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>676</v>
       </c>
@@ -5559,16 +4665,13 @@
         <v>0.64080141499999999</v>
       </c>
       <c r="C298" s="7">
-        <v>8.7337539999999998E-3</v>
-      </c>
-      <c r="D298" s="7">
         <v>4.9906236E-2</v>
       </c>
-      <c r="E298" s="6">
+      <c r="D298" s="6">
         <v>0.76626891200000002</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>677</v>
       </c>
@@ -5576,16 +4679,13 @@
         <v>0.64473339299999999</v>
       </c>
       <c r="C299" s="7">
-        <v>9.3325979999999992E-3</v>
-      </c>
-      <c r="D299" s="7">
         <v>5.0077166999999999E-2</v>
       </c>
-      <c r="E299" s="6">
+      <c r="D299" s="6">
         <v>0.76564856299999995</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>678</v>
       </c>
@@ -5593,16 +4693,13 @@
         <v>0.64701152299999998</v>
       </c>
       <c r="C300" s="7">
-        <v>9.9938370000000002E-3</v>
-      </c>
-      <c r="D300" s="7">
         <v>5.0094332999999998E-2</v>
       </c>
-      <c r="E300" s="6">
+      <c r="D300" s="6">
         <v>0.76321619500000004</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>679</v>
       </c>
@@ -5610,16 +4707,13 @@
         <v>0.65164234799999998</v>
       </c>
       <c r="C301" s="7">
-        <v>1.0348803E-2</v>
-      </c>
-      <c r="D301" s="7">
         <v>4.9951598E-2</v>
       </c>
-      <c r="E301" s="6">
+      <c r="D301" s="6">
         <v>0.762620568</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>680</v>
       </c>
@@ -5627,16 +4721,13 @@
         <v>0.65441807299999999</v>
       </c>
       <c r="C302" s="7">
-        <v>1.0283548E-2</v>
-      </c>
-      <c r="D302" s="7">
         <v>4.9157986000000001E-2</v>
       </c>
-      <c r="E302" s="6">
+      <c r="D302" s="6">
         <v>0.76013717800000002</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>681</v>
       </c>
@@ -5644,16 +4735,13 @@
         <v>0.65830485699999997</v>
       </c>
       <c r="C303" s="7">
-        <v>9.8338399999999999E-3</v>
-      </c>
-      <c r="D303" s="7">
         <v>4.7834357000000001E-2</v>
       </c>
-      <c r="E303" s="6">
+      <c r="D303" s="6">
         <v>0.75906369399999996</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>682</v>
       </c>
@@ -5661,16 +4749,13 @@
         <v>0.66170553899999995</v>
       </c>
       <c r="C304" s="7">
-        <v>9.4042789999999998E-3</v>
-      </c>
-      <c r="D304" s="7">
         <v>4.5583384999999997E-2</v>
       </c>
-      <c r="E304" s="6">
+      <c r="D304" s="6">
         <v>0.75568212199999996</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>683</v>
       </c>
@@ -5678,16 +4763,13 @@
         <v>0.66492028800000003</v>
       </c>
       <c r="C305" s="7">
-        <v>8.7853819999999996E-3</v>
-      </c>
-      <c r="D305" s="7">
         <v>4.2720717999999998E-2</v>
       </c>
-      <c r="E305" s="6">
+      <c r="D305" s="6">
         <v>0.75083857300000001</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>684</v>
       </c>
@@ -5695,16 +4777,13 @@
         <v>0.66732835400000001</v>
       </c>
       <c r="C306" s="7">
-        <v>8.3720819999999994E-3</v>
-      </c>
-      <c r="D306" s="7">
         <v>3.9562880000000002E-2</v>
       </c>
-      <c r="E306" s="6">
+      <c r="D306" s="6">
         <v>0.74013119599999999</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>685</v>
       </c>
@@ -5712,16 +4791,13 @@
         <v>0.67147338300000003</v>
       </c>
       <c r="C307" s="7">
-        <v>1.1548569E-2</v>
-      </c>
-      <c r="D307" s="7">
         <v>3.7885961000000003E-2</v>
       </c>
-      <c r="E307" s="6">
+      <c r="D307" s="6">
         <v>0.70027452700000004</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>686</v>
       </c>
@@ -5729,16 +4805,13 @@
         <v>0.67433912900000004</v>
       </c>
       <c r="C308" s="7">
-        <v>1.8270391E-2</v>
-      </c>
-      <c r="D308" s="7">
         <v>3.7704805000000001E-2</v>
       </c>
-      <c r="E308" s="6">
+      <c r="D308" s="6">
         <v>0.63521006599999996</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>687</v>
       </c>
@@ -5746,16 +4819,13 @@
         <v>0.67728037299999999</v>
       </c>
       <c r="C309" s="7">
-        <v>2.4644803E-2</v>
-      </c>
-      <c r="D309" s="7">
         <v>3.7918211E-2</v>
       </c>
-      <c r="E309" s="6">
+      <c r="D309" s="6">
         <v>0.57915815800000003</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>688</v>
       </c>
@@ -5763,16 +4833,13 @@
         <v>0.68135960600000001</v>
       </c>
       <c r="C310" s="7">
-        <v>2.4254413999999998E-2</v>
-      </c>
-      <c r="D310" s="7">
         <v>3.6997223000000003E-2</v>
       </c>
-      <c r="E310" s="6">
+      <c r="D310" s="6">
         <v>0.564461184</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>689</v>
       </c>
@@ -5780,16 +4847,13 @@
         <v>0.68467185399999997</v>
       </c>
       <c r="C311" s="7">
-        <v>1.8623431999999999E-2</v>
-      </c>
-      <c r="D311" s="7">
         <v>3.5322106999999998E-2</v>
       </c>
-      <c r="E311" s="6">
+      <c r="D311" s="6">
         <v>0.58191953799999996</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>690</v>
       </c>
@@ -5797,16 +4861,13 @@
         <v>0.687358947</v>
       </c>
       <c r="C312" s="7">
-        <v>1.2516859E-2</v>
-      </c>
-      <c r="D312" s="7">
         <v>3.3564339999999998E-2</v>
       </c>
-      <c r="E312" s="6">
+      <c r="D312" s="6">
         <v>0.60760083099999995</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>691</v>
       </c>
@@ -5814,16 +4875,13 @@
         <v>0.69017165999999996</v>
       </c>
       <c r="C313" s="7">
-        <v>1.0439032000000001E-2</v>
-      </c>
-      <c r="D313" s="7">
         <v>3.2221367000000001E-2</v>
       </c>
-      <c r="E313" s="6">
+      <c r="D313" s="6">
         <v>0.63624584500000003</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>692</v>
       </c>
@@ -5831,16 +4889,13 @@
         <v>0.69456142799999998</v>
       </c>
       <c r="C314" s="7">
-        <v>1.3756057E-2</v>
-      </c>
-      <c r="D314" s="7">
         <v>3.1659957000000002E-2</v>
       </c>
-      <c r="E314" s="6">
+      <c r="D314" s="6">
         <v>0.65372142300000002</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>693</v>
       </c>
@@ -5848,16 +4903,13 @@
         <v>0.69731400600000004</v>
       </c>
       <c r="C315" s="7">
-        <v>1.7572117000000002E-2</v>
-      </c>
-      <c r="D315" s="7">
         <v>3.1274817000000003E-2</v>
       </c>
-      <c r="E315" s="6">
+      <c r="D315" s="6">
         <v>0.660680512</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>694</v>
       </c>
@@ -5865,16 +4917,13 @@
         <v>0.70105714600000002</v>
       </c>
       <c r="C316" s="7">
-        <v>1.6731106999999999E-2</v>
-      </c>
-      <c r="D316" s="7">
         <v>3.0586597E-2</v>
       </c>
-      <c r="E316" s="6">
+      <c r="D316" s="6">
         <v>0.66532877199999996</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>695</v>
       </c>
@@ -5882,16 +4931,13 @@
         <v>0.70360295699999997</v>
       </c>
       <c r="C317" s="7">
-        <v>1.1685651E-2</v>
-      </c>
-      <c r="D317" s="7">
         <v>2.9822263000000002E-2</v>
       </c>
-      <c r="E317" s="6">
+      <c r="D317" s="6">
         <v>0.67647176099999995</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>696</v>
       </c>
@@ -5899,16 +4945,13 @@
         <v>0.70633143499999995</v>
       </c>
       <c r="C318" s="7">
-        <v>7.1436349999999997E-3</v>
-      </c>
-      <c r="D318" s="7">
         <v>2.9012856E-2</v>
       </c>
-      <c r="E318" s="6">
+      <c r="D318" s="6">
         <v>0.68988220300000003</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>697</v>
       </c>
@@ -5916,16 +4959,13 @@
         <v>0.70879227300000003</v>
       </c>
       <c r="C319" s="7">
-        <v>4.8798599999999998E-3</v>
-      </c>
-      <c r="D319" s="7">
         <v>2.7387273E-2</v>
       </c>
-      <c r="E319" s="6">
+      <c r="D319" s="6">
         <v>0.69632485300000002</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>698</v>
       </c>
@@ -5933,16 +4973,13 @@
         <v>0.71221148599999995</v>
       </c>
       <c r="C320" s="7">
-        <v>3.9230230000000003E-3</v>
-      </c>
-      <c r="D320" s="7">
         <v>2.4940535E-2</v>
       </c>
-      <c r="E320" s="6">
+      <c r="D320" s="6">
         <v>0.69169590299999995</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>699</v>
       </c>
@@ -5950,16 +4987,13 @@
         <v>0.71592612200000005</v>
       </c>
       <c r="C321" s="7">
-        <v>3.8643739999999998E-3</v>
-      </c>
-      <c r="D321" s="7">
         <v>2.3340802000000001E-2</v>
       </c>
-      <c r="E321" s="6">
+      <c r="D321" s="6">
         <v>0.68400860200000002</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>700</v>
       </c>
@@ -5967,16 +5001,13 @@
         <v>0.719154403</v>
       </c>
       <c r="C322" s="7">
-        <v>4.240611E-3</v>
-      </c>
-      <c r="D322" s="7">
         <v>2.2615198E-2</v>
       </c>
-      <c r="E322" s="6">
+      <c r="D322" s="6">
         <v>0.67669882299999995</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>701</v>
       </c>
@@ -5984,16 +5015,13 @@
         <v>0.72205320100000003</v>
       </c>
       <c r="C323" s="7">
-        <v>5.3156490000000004E-3</v>
-      </c>
-      <c r="D323" s="7">
         <v>2.2296778E-2</v>
       </c>
-      <c r="E323" s="6">
+      <c r="D323" s="6">
         <v>0.67414326599999996</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>702</v>
       </c>
@@ -6001,16 +5029,13 @@
         <v>0.72521269099999996</v>
       </c>
       <c r="C324" s="7">
-        <v>7.6827509999999998E-3</v>
-      </c>
-      <c r="D324" s="7">
         <v>2.2316639999999999E-2</v>
       </c>
-      <c r="E324" s="6">
+      <c r="D324" s="6">
         <v>0.67870440300000001</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>703</v>
       </c>
@@ -6018,16 +5043,13 @@
         <v>0.72948664699999999</v>
       </c>
       <c r="C325" s="7">
-        <v>1.1776348000000001E-2</v>
-      </c>
-      <c r="D325" s="7">
         <v>2.2924463999999999E-2</v>
       </c>
-      <c r="E325" s="6">
+      <c r="D325" s="6">
         <v>0.68679540800000005</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>704</v>
       </c>
@@ -6035,16 +5057,13 @@
         <v>0.73316438699999997</v>
       </c>
       <c r="C326" s="7">
-        <v>2.1378716999999998E-2</v>
-      </c>
-      <c r="D326" s="7">
         <v>2.4936727999999998E-2</v>
       </c>
-      <c r="E326" s="6">
+      <c r="D326" s="6">
         <v>0.69440861399999998</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>705</v>
       </c>
@@ -6052,16 +5071,13 @@
         <v>0.73524209399999996</v>
       </c>
       <c r="C327" s="7">
-        <v>4.0004888000000002E-2</v>
-      </c>
-      <c r="D327" s="7">
         <v>3.0770270999999998E-2</v>
       </c>
-      <c r="E327" s="6">
+      <c r="D327" s="6">
         <v>0.69800083000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>706</v>
       </c>
@@ -6069,16 +5085,13 @@
         <v>0.73807182599999999</v>
       </c>
       <c r="C328" s="7">
-        <v>6.0539253000000001E-2</v>
-      </c>
-      <c r="D328" s="7">
         <v>3.7077401000000003E-2</v>
       </c>
-      <c r="E328" s="6">
+      <c r="D328" s="6">
         <v>0.70090239399999998</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>707</v>
       </c>
@@ -6086,16 +5099,13 @@
         <v>0.74206050099999998</v>
       </c>
       <c r="C329" s="7">
-        <v>7.7712484999999998E-2</v>
-      </c>
-      <c r="D329" s="7">
         <v>4.1488684999999997E-2</v>
       </c>
-      <c r="E329" s="6">
+      <c r="D329" s="6">
         <v>0.70353729499999995</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>708</v>
       </c>
@@ -6103,16 +5113,13 @@
         <v>0.74501037299999995</v>
       </c>
       <c r="C330" s="7">
-        <v>8.3508256000000003E-2</v>
-      </c>
-      <c r="D330" s="7">
         <v>4.1733363000000002E-2</v>
       </c>
-      <c r="E330" s="6">
+      <c r="D330" s="6">
         <v>0.704421517</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>709</v>
       </c>
@@ -6120,16 +5127,13 @@
         <v>0.74748927700000001</v>
       </c>
       <c r="C331" s="7">
-        <v>7.4752705000000003E-2</v>
-      </c>
-      <c r="D331" s="7">
         <v>3.8006555999999997E-2</v>
       </c>
-      <c r="E331" s="6">
+      <c r="D331" s="6">
         <v>0.70553376700000003</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>710</v>
       </c>
@@ -6137,16 +5141,13 @@
         <v>0.75075866700000005</v>
       </c>
       <c r="C332" s="7">
-        <v>6.4403159000000001E-2</v>
-      </c>
-      <c r="D332" s="7">
         <v>3.4073446E-2</v>
       </c>
-      <c r="E332" s="6">
+      <c r="D332" s="6">
         <v>0.70644469799999998</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>711</v>
       </c>
@@ -6154,16 +5155,13 @@
         <v>0.75283345000000002</v>
       </c>
       <c r="C333" s="7">
-        <v>6.2620666000000005E-2</v>
-      </c>
-      <c r="D333" s="7">
         <v>3.285971E-2</v>
       </c>
-      <c r="E333" s="6">
+      <c r="D333" s="6">
         <v>0.70397936999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>712</v>
       </c>
@@ -6171,16 +5169,13 @@
         <v>0.75611744299999994</v>
       </c>
       <c r="C334" s="7">
-        <v>5.902516E-2</v>
-      </c>
-      <c r="D334" s="7">
         <v>3.1682498000000003E-2</v>
       </c>
-      <c r="E334" s="6">
+      <c r="D334" s="6">
         <v>0.700887594</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>713</v>
       </c>
@@ -6188,16 +5183,13 @@
         <v>0.75925936599999999</v>
       </c>
       <c r="C335" s="7">
-        <v>4.5647440999999997E-2</v>
-      </c>
-      <c r="D335" s="7">
         <v>2.779425E-2</v>
       </c>
-      <c r="E335" s="6">
+      <c r="D335" s="6">
         <v>0.69581486400000003</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>714</v>
       </c>
@@ -6205,16 +5197,13 @@
         <v>0.76240801300000005</v>
       </c>
       <c r="C336" s="7">
-        <v>2.5396051999999999E-2</v>
-      </c>
-      <c r="D336" s="7">
         <v>2.2077589000000002E-2</v>
       </c>
-      <c r="E336" s="6">
+      <c r="D336" s="6">
         <v>0.68637458900000003</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>715</v>
       </c>
@@ -6222,16 +5211,13 @@
         <v>0.76468597699999996</v>
       </c>
       <c r="C337" s="7">
-        <v>1.2817735E-2</v>
-      </c>
-      <c r="D337" s="7">
         <v>1.8208617E-2</v>
       </c>
-      <c r="E337" s="6">
+      <c r="D337" s="6">
         <v>0.66008871099999999</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>716</v>
       </c>
@@ -6239,16 +5225,13 @@
         <v>0.76695612800000001</v>
       </c>
       <c r="C338" s="7">
-        <v>6.2978740000000002E-3</v>
-      </c>
-      <c r="D338" s="7">
         <v>1.5887384000000001E-2</v>
       </c>
-      <c r="E338" s="6">
+      <c r="D338" s="6">
         <v>0.61798589400000004</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>717</v>
       </c>
@@ -6256,16 +5239,13 @@
         <v>0.77138211800000001</v>
       </c>
       <c r="C339" s="7">
-        <v>3.9014420000000002E-3</v>
-      </c>
-      <c r="D339" s="7">
         <v>1.4728987000000001E-2</v>
       </c>
-      <c r="E339" s="6">
+      <c r="D339" s="6">
         <v>0.56759324899999997</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>718</v>
       </c>
@@ -6273,16 +5253,13 @@
         <v>0.77379956800000005</v>
       </c>
       <c r="C340" s="7">
-        <v>3.0257040000000002E-3</v>
-      </c>
-      <c r="D340" s="7">
         <v>1.4068270000000001E-2</v>
       </c>
-      <c r="E340" s="6">
+      <c r="D340" s="6">
         <v>0.52621478700000002</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>719</v>
       </c>
@@ -6290,16 +5267,13 @@
         <v>0.77648798399999996</v>
       </c>
       <c r="C341" s="7">
-        <v>2.615062E-3</v>
-      </c>
-      <c r="D341" s="7">
         <v>1.3614375999999999E-2</v>
       </c>
-      <c r="E341" s="6">
+      <c r="D341" s="6">
         <v>0.51625893499999997</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>720</v>
       </c>
@@ -6307,16 +5281,13 @@
         <v>0.78090023600000003</v>
       </c>
       <c r="C342" s="7">
-        <v>2.421645E-3</v>
-      </c>
-      <c r="D342" s="7">
         <v>1.3310314E-2</v>
       </c>
-      <c r="E342" s="6">
+      <c r="D342" s="6">
         <v>0.53534887799999997</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>721</v>
       </c>
@@ -6324,16 +5295,13 @@
         <v>0.78344901</v>
       </c>
       <c r="C343" s="7">
-        <v>2.3555730000000001E-3</v>
-      </c>
-      <c r="D343" s="7">
         <v>1.3028293E-2</v>
       </c>
-      <c r="E343" s="6">
+      <c r="D343" s="6">
         <v>0.56628923399999997</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>722</v>
       </c>
@@ -6341,16 +5309,13 @@
         <v>0.78641960300000002</v>
       </c>
       <c r="C344" s="7">
-        <v>2.2375110000000002E-3</v>
-      </c>
-      <c r="D344" s="7">
         <v>1.2641054000000001E-2</v>
       </c>
-      <c r="E344" s="6">
+      <c r="D344" s="6">
         <v>0.57518095899999999</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>723</v>
       </c>
@@ -6358,16 +5323,13 @@
         <v>0.78781018599999997</v>
       </c>
       <c r="C345" s="7">
-        <v>2.1249020000000001E-3</v>
-      </c>
-      <c r="D345" s="7">
         <v>1.2279277E-2</v>
       </c>
-      <c r="E345" s="6">
+      <c r="D345" s="6">
         <v>0.564228061</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>724</v>
       </c>
@@ -6375,16 +5337,13 @@
         <v>0.79110942900000003</v>
       </c>
       <c r="C346" s="7">
-        <v>2.0564350000000001E-3</v>
-      </c>
-      <c r="D346" s="7">
         <v>1.1895297000000001E-2</v>
       </c>
-      <c r="E346" s="6">
+      <c r="D346" s="6">
         <v>0.54921946399999999</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>725</v>
       </c>
@@ -6392,16 +5351,13 @@
         <v>0.792415447</v>
       </c>
       <c r="C347" s="7">
-        <v>2.1055610000000002E-3</v>
-      </c>
-      <c r="D347" s="7">
         <v>1.1948828999999999E-2</v>
       </c>
-      <c r="E347" s="6">
+      <c r="D347" s="6">
         <v>0.54342875099999999</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>726</v>
       </c>
@@ -6409,16 +5365,13 @@
         <v>0.79534506500000002</v>
       </c>
       <c r="C348" s="7">
-        <v>2.1088489999999999E-3</v>
-      </c>
-      <c r="D348" s="7">
         <v>1.2160875E-2</v>
       </c>
-      <c r="E348" s="6">
+      <c r="D348" s="6">
         <v>0.54252425100000001</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>727</v>
       </c>
@@ -6426,16 +5379,13 @@
         <v>0.79665350999999995</v>
       </c>
       <c r="C349" s="7">
-        <v>2.1645269999999999E-3</v>
-      </c>
-      <c r="D349" s="7">
         <v>1.2018295E-2</v>
       </c>
-      <c r="E349" s="6">
+      <c r="D349" s="6">
         <v>0.54131754700000001</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>728</v>
       </c>
@@ -6443,16 +5393,13 @@
         <v>0.80137197599999999</v>
       </c>
       <c r="C350" s="7">
-        <v>2.0688659999999999E-3</v>
-      </c>
-      <c r="D350" s="7">
         <v>1.1550805000000001E-2</v>
       </c>
-      <c r="E350" s="6">
+      <c r="D350" s="6">
         <v>0.54396620299999998</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>729</v>
       </c>
@@ -6460,16 +5407,13 @@
         <v>0.80443285499999995</v>
       </c>
       <c r="C351" s="7">
-        <v>1.9470500000000001E-3</v>
-      </c>
-      <c r="D351" s="7">
         <v>1.0968485E-2</v>
       </c>
-      <c r="E351" s="6">
+      <c r="D351" s="6">
         <v>0.54799718100000006</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>730</v>
       </c>
@@ -6477,16 +5421,13 @@
         <v>0.80494575800000001</v>
       </c>
       <c r="C352" s="7">
-        <v>1.792835E-3</v>
-      </c>
-      <c r="D352" s="7">
         <v>1.0437076999999999E-2</v>
       </c>
-      <c r="E352" s="6">
+      <c r="D352" s="6">
         <v>0.55475117699999998</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>731</v>
       </c>
@@ -6494,16 +5435,13 @@
         <v>0.81026143399999995</v>
       </c>
       <c r="C353" s="7">
-        <v>1.658961E-3</v>
-      </c>
-      <c r="D353" s="7">
         <v>1.0045197000000001E-2</v>
       </c>
-      <c r="E353" s="6">
+      <c r="D353" s="6">
         <v>0.57359295499999996</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>732</v>
       </c>
@@ -6511,16 +5449,13 @@
         <v>0.812172691</v>
       </c>
       <c r="C354" s="7">
-        <v>1.5410459999999999E-3</v>
-      </c>
-      <c r="D354" s="7">
         <v>9.7981760000000005E-3</v>
       </c>
-      <c r="E354" s="6">
+      <c r="D354" s="6">
         <v>0.59688194900000002</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>733</v>
       </c>
@@ -6528,16 +5463,13 @@
         <v>0.81480386800000004</v>
       </c>
       <c r="C355" s="7">
-        <v>1.3989289999999999E-3</v>
-      </c>
-      <c r="D355" s="7">
         <v>9.5787600000000004E-3</v>
       </c>
-      <c r="E355" s="6">
+      <c r="D355" s="6">
         <v>0.61568438599999997</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>734</v>
       </c>
@@ -6545,16 +5477,13 @@
         <v>0.81690076899999997</v>
       </c>
       <c r="C356" s="7">
-        <v>1.2540019999999999E-3</v>
-      </c>
-      <c r="D356" s="7">
         <v>9.3684070000000005E-3</v>
       </c>
-      <c r="E356" s="6">
+      <c r="D356" s="6">
         <v>0.62595117899999997</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>735</v>
       </c>
@@ -6562,16 +5491,13 @@
         <v>0.82040184800000004</v>
       </c>
       <c r="C357" s="7">
-        <v>1.2140409999999999E-3</v>
-      </c>
-      <c r="D357" s="7">
         <v>9.1907900000000008E-3</v>
       </c>
-      <c r="E357" s="6">
+      <c r="D357" s="6">
         <v>0.62907956600000003</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>736</v>
       </c>
@@ -6579,16 +5505,13 @@
         <v>0.82494413899999997</v>
       </c>
       <c r="C358" s="7">
-        <v>1.4077969999999999E-3</v>
-      </c>
-      <c r="D358" s="7">
         <v>1.0730273E-2</v>
       </c>
-      <c r="E358" s="6">
+      <c r="D358" s="6">
         <v>0.63060904100000004</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>737</v>
       </c>
@@ -6596,16 +5519,13 @@
         <v>0.82607311500000002</v>
       </c>
       <c r="C359" s="7">
-        <v>1.8507479999999999E-3</v>
-      </c>
-      <c r="D359" s="7">
         <v>1.3315749999999999E-2</v>
       </c>
-      <c r="E359" s="6">
+      <c r="D359" s="6">
         <v>0.63029922199999999</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>738</v>
       </c>
@@ -6613,16 +5533,13 @@
         <v>0.82949041300000004</v>
       </c>
       <c r="C360" s="7">
-        <v>2.1478199999999999E-3</v>
-      </c>
-      <c r="D360" s="7">
         <v>1.4697592000000001E-2</v>
       </c>
-      <c r="E360" s="6">
+      <c r="D360" s="6">
         <v>0.63199596199999997</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>739</v>
       </c>
@@ -6630,16 +5547,13 @@
         <v>0.83194500199999999</v>
       </c>
       <c r="C361" s="7">
-        <v>2.0962620000000002E-3</v>
-      </c>
-      <c r="D361" s="7">
         <v>1.3266343E-2</v>
       </c>
-      <c r="E361" s="6">
+      <c r="D361" s="6">
         <v>0.63336306200000003</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>740</v>
       </c>
@@ -6647,16 +5561,13 @@
         <v>0.83606218899999996</v>
       </c>
       <c r="C362" s="7">
-        <v>2.2358270000000001E-3</v>
-      </c>
-      <c r="D362" s="7">
         <v>1.0871595E-2</v>
       </c>
-      <c r="E362" s="6">
+      <c r="D362" s="6">
         <v>0.63562226799999999</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>741</v>
       </c>
@@ -6664,16 +5575,13 @@
         <v>0.83928887500000005</v>
       </c>
       <c r="C363" s="7">
-        <v>2.7329849999999998E-3</v>
-      </c>
-      <c r="D363" s="7">
         <v>9.2848129999999994E-3</v>
       </c>
-      <c r="E363" s="6">
+      <c r="D363" s="6">
         <v>0.63876610300000003</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>742</v>
       </c>
@@ -6681,16 +5589,13 @@
         <v>0.84139187199999999</v>
       </c>
       <c r="C364" s="7">
-        <v>3.2066199999999999E-3</v>
-      </c>
-      <c r="D364" s="7">
         <v>8.6683709999999994E-3</v>
       </c>
-      <c r="E364" s="6">
+      <c r="D364" s="6">
         <v>0.64212622799999997</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>743</v>
       </c>
@@ -6698,16 +5603,13 @@
         <v>0.84575335900000004</v>
       </c>
       <c r="C365" s="7">
-        <v>2.8788149999999998E-3</v>
-      </c>
-      <c r="D365" s="7">
         <v>8.2204770000000003E-3</v>
       </c>
-      <c r="E365" s="6">
+      <c r="D365" s="6">
         <v>0.64643578700000004</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>744</v>
       </c>
@@ -6715,16 +5617,13 @@
         <v>0.84831666699999997</v>
       </c>
       <c r="C366" s="7">
-        <v>2.272086E-3</v>
-      </c>
-      <c r="D366" s="7">
         <v>7.8413500000000004E-3</v>
       </c>
-      <c r="E366" s="6">
+      <c r="D366" s="6">
         <v>0.64757808800000005</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>745</v>
       </c>
@@ -6732,16 +5631,13 @@
         <v>0.85064471900000005</v>
       </c>
       <c r="C367" s="7">
-        <v>1.962559E-3</v>
-      </c>
-      <c r="D367" s="7">
         <v>7.4845950000000001E-3</v>
       </c>
-      <c r="E367" s="6">
+      <c r="D367" s="6">
         <v>0.64713363800000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>746</v>
       </c>
@@ -6749,16 +5645,13 @@
         <v>0.85616979800000004</v>
       </c>
       <c r="C368" s="7">
-        <v>1.842549E-3</v>
-      </c>
-      <c r="D368" s="7">
         <v>7.4079829999999999E-3</v>
       </c>
-      <c r="E368" s="6">
+      <c r="D368" s="6">
         <v>0.64915883699999999</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>747</v>
       </c>
@@ -6766,16 +5659,13 @@
         <v>0.85828430200000005</v>
       </c>
       <c r="C369" s="7">
-        <v>1.6540929999999999E-3</v>
-      </c>
-      <c r="D369" s="7">
         <v>7.369731E-3</v>
       </c>
-      <c r="E369" s="6">
+      <c r="D369" s="6">
         <v>0.64690820100000002</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>748</v>
       </c>
@@ -6783,16 +5673,13 @@
         <v>0.85994651300000002</v>
       </c>
       <c r="C370" s="7">
-        <v>1.6723860000000001E-3</v>
-      </c>
-      <c r="D370" s="7">
         <v>8.27635E-3</v>
       </c>
-      <c r="E370" s="6">
+      <c r="D370" s="6">
         <v>0.64291970899999995</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>749</v>
       </c>
@@ -6800,16 +5687,13 @@
         <v>0.86528469299999999</v>
       </c>
       <c r="C371" s="7">
-        <v>2.2620320000000002E-3</v>
-      </c>
-      <c r="D371" s="7">
         <v>1.1777691999999999E-2</v>
       </c>
-      <c r="E371" s="6">
+      <c r="D371" s="6">
         <v>0.63976066200000004</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>750</v>
       </c>
@@ -6817,16 +5701,13 @@
         <v>0.86833539299999996</v>
       </c>
       <c r="C372" s="7">
-        <v>2.8802150000000002E-3</v>
-      </c>
-      <c r="D372" s="7">
         <v>1.5341520000000001E-2</v>
       </c>
-      <c r="E372" s="6">
+      <c r="D372" s="6">
         <v>0.63624976600000005</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>751</v>
       </c>
@@ -6834,16 +5715,13 @@
         <v>0.87124542999999999</v>
       </c>
       <c r="C373" s="7">
-        <v>2.948628E-3</v>
-      </c>
-      <c r="D373" s="7">
         <v>1.6264476999999999E-2</v>
       </c>
-      <c r="E373" s="6">
+      <c r="D373" s="6">
         <v>0.634284925</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>752</v>
       </c>
@@ -6851,16 +5729,13 @@
         <v>0.87487019600000004</v>
       </c>
       <c r="C374" s="7">
-        <v>2.182977E-3</v>
-      </c>
-      <c r="D374" s="7">
         <v>1.3238543E-2</v>
       </c>
-      <c r="E374" s="6">
+      <c r="D374" s="6">
         <v>0.63323229400000003</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>753</v>
       </c>
@@ -6868,16 +5743,13 @@
         <v>0.87641621400000003</v>
       </c>
       <c r="C375" s="7">
-        <v>1.3800749999999999E-3</v>
-      </c>
-      <c r="D375" s="7">
         <v>9.5323019999999994E-3</v>
       </c>
-      <c r="E375" s="6">
+      <c r="D375" s="6">
         <v>0.63166075799999999</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>754</v>
       </c>
@@ -6885,16 +5757,13 @@
         <v>0.87925688700000004</v>
       </c>
       <c r="C376" s="7">
-        <v>9.0085299999999996E-4</v>
-      </c>
-      <c r="D376" s="7">
         <v>7.3861029999999998E-3</v>
       </c>
-      <c r="E376" s="6">
+      <c r="D376" s="6">
         <v>0.62988941200000004</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>755</v>
       </c>
@@ -6902,16 +5771,13 @@
         <v>0.883935268</v>
       </c>
       <c r="C377" s="7">
-        <v>6.4132999999999996E-4</v>
-      </c>
-      <c r="D377" s="7">
         <v>6.18798E-3</v>
       </c>
-      <c r="E377" s="6">
+      <c r="D377" s="6">
         <v>0.62788633400000005</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>756</v>
       </c>
@@ -6919,16 +5785,13 @@
         <v>0.88721001200000005</v>
       </c>
       <c r="C378" s="7">
-        <v>5.0354600000000001E-4</v>
-      </c>
-      <c r="D378" s="7">
         <v>5.8312559999999999E-3</v>
       </c>
-      <c r="E378" s="6">
+      <c r="D378" s="6">
         <v>0.62273613900000002</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>757</v>
       </c>
@@ -6936,16 +5799,13 @@
         <v>0.88921290900000005</v>
       </c>
       <c r="C379" s="7">
-        <v>4.9623099999999997E-4</v>
-      </c>
-      <c r="D379" s="7">
         <v>5.6470360000000002E-3</v>
       </c>
-      <c r="E379" s="6">
+      <c r="D379" s="6">
         <v>0.59400497399999996</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>758</v>
       </c>
@@ -6953,16 +5813,13 @@
         <v>0.891262573</v>
       </c>
       <c r="C380" s="7">
-        <v>4.5583E-4</v>
-      </c>
-      <c r="D380" s="7">
         <v>5.4686609999999997E-3</v>
       </c>
-      <c r="E380" s="6">
+      <c r="D380" s="6">
         <v>0.51365595399999997</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>759</v>
       </c>
@@ -6970,16 +5827,13 @@
         <v>0.89494954900000001</v>
       </c>
       <c r="C381" s="7">
-        <v>3.8771600000000003E-4</v>
-      </c>
-      <c r="D381" s="7">
         <v>5.4112630000000004E-3</v>
       </c>
-      <c r="E381" s="6">
+      <c r="D381" s="6">
         <v>0.37119349200000001</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>760</v>
       </c>
@@ -6987,16 +5841,13 @@
         <v>0.89816277799999999</v>
       </c>
       <c r="C382" s="7">
-        <v>4.32655E-4</v>
-      </c>
-      <c r="D382" s="7">
         <v>5.660829E-3</v>
       </c>
-      <c r="E382" s="6">
+      <c r="D382" s="6">
         <v>0.24986693500000001</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>761</v>
       </c>
@@ -7004,16 +5855,13 @@
         <v>0.90074391300000001</v>
       </c>
       <c r="C383" s="7">
-        <v>1.28207E-3</v>
-      </c>
-      <c r="D383" s="7">
         <v>1.1746667000000001E-2</v>
       </c>
-      <c r="E383" s="6">
+      <c r="D383" s="6">
         <v>0.196608587</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>762</v>
       </c>
@@ -7021,16 +5869,13 @@
         <v>0.90350070000000005</v>
       </c>
       <c r="C384" s="7">
-        <v>2.8510950000000001E-3</v>
-      </c>
-      <c r="D384" s="7">
         <v>2.3137775999999999E-2</v>
       </c>
-      <c r="E384" s="6">
+      <c r="D384" s="6">
         <v>0.18399599899999999</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>763</v>
       </c>
@@ -7038,16 +5883,13 @@
         <v>0.90766623800000001</v>
       </c>
       <c r="C385" s="7">
-        <v>3.8784679999999999E-3</v>
-      </c>
-      <c r="D385" s="7">
         <v>3.0419613000000002E-2</v>
       </c>
-      <c r="E385" s="6">
+      <c r="D385" s="6">
         <v>0.201779864</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>764</v>
       </c>
@@ -7055,16 +5897,13 @@
         <v>0.91048231899999998</v>
       </c>
       <c r="C386" s="7">
-        <v>3.2345479999999999E-3</v>
-      </c>
-      <c r="D386" s="7">
         <v>2.5787996000000001E-2</v>
       </c>
-      <c r="E386" s="6">
+      <c r="D386" s="6">
         <v>0.25338177499999998</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>765</v>
       </c>
@@ -7072,16 +5911,13 @@
         <v>0.91384780700000001</v>
       </c>
       <c r="C387" s="7">
-        <v>1.9869169999999999E-3</v>
-      </c>
-      <c r="D387" s="7">
         <v>1.6339837999999999E-2</v>
       </c>
-      <c r="E387" s="6">
+      <c r="D387" s="6">
         <v>0.32614952699999999</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>766</v>
       </c>
@@ -7089,16 +5925,13 @@
         <v>0.91713909100000002</v>
       </c>
       <c r="C388" s="7">
-        <v>1.1154279999999999E-3</v>
-      </c>
-      <c r="D388" s="7">
         <v>9.4607800000000002E-3</v>
       </c>
-      <c r="E388" s="6">
+      <c r="D388" s="6">
         <v>0.40790479600000001</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>767</v>
       </c>
@@ -7106,16 +5939,13 @@
         <v>0.92070941799999995</v>
       </c>
       <c r="C389" s="7">
-        <v>6.24207E-4</v>
-      </c>
-      <c r="D389" s="7">
         <v>6.3880680000000002E-3</v>
       </c>
-      <c r="E389" s="6">
+      <c r="D389" s="6">
         <v>0.47733687800000002</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>768</v>
       </c>
@@ -7123,16 +5953,13 @@
         <v>0.92329562499999995</v>
       </c>
       <c r="C390" s="7">
-        <v>5.78588E-4</v>
-      </c>
-      <c r="D390" s="7">
         <v>5.1758669999999998E-3</v>
       </c>
-      <c r="E390" s="6">
+      <c r="D390" s="6">
         <v>0.52460694500000005</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>769</v>
       </c>
@@ -7140,16 +5967,13 @@
         <v>0.92500265699999995</v>
       </c>
       <c r="C391" s="7">
-        <v>5.6170099999999995E-4</v>
-      </c>
-      <c r="D391" s="7">
         <v>4.7878850000000004E-3</v>
       </c>
-      <c r="E391" s="6">
+      <c r="D391" s="6">
         <v>0.55430563700000002</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>770</v>
       </c>
@@ -7157,16 +5981,13 @@
         <v>0.92760304800000004</v>
       </c>
       <c r="C392" s="7">
-        <v>9.5205099999999998E-4</v>
-      </c>
-      <c r="D392" s="7">
         <v>6.9015229999999997E-3</v>
       </c>
-      <c r="E392" s="6">
+      <c r="D392" s="6">
         <v>0.57044481199999997</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>771</v>
       </c>
@@ -7174,16 +5995,13 @@
         <v>0.93087895799999998</v>
       </c>
       <c r="C393" s="7">
-        <v>1.6911929999999999E-3</v>
-      </c>
-      <c r="D393" s="7">
         <v>1.1034550000000001E-2</v>
       </c>
-      <c r="E393" s="6">
+      <c r="D393" s="6">
         <v>0.57777562100000002</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>772</v>
       </c>
@@ -7191,16 +6009,13 @@
         <v>0.93442026899999997</v>
       </c>
       <c r="C394" s="7">
-        <v>2.194072E-3</v>
-      </c>
-      <c r="D394" s="7">
         <v>1.3406952999999999E-2</v>
       </c>
-      <c r="E394" s="6">
+      <c r="D394" s="6">
         <v>0.58144642099999999</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>773</v>
       </c>
@@ -7208,16 +6023,13 @@
         <v>0.93638038099999998</v>
       </c>
       <c r="C395" s="7">
-        <v>1.9655829999999999E-3</v>
-      </c>
-      <c r="D395" s="7">
         <v>1.1407946E-2</v>
       </c>
-      <c r="E395" s="6">
+      <c r="D395" s="6">
         <v>0.58128839200000004</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>774</v>
       </c>
@@ -7225,16 +6037,13 @@
         <v>0.93923609600000002</v>
       </c>
       <c r="C396" s="7">
-        <v>1.2978760000000001E-3</v>
-      </c>
-      <c r="D396" s="7">
         <v>7.8730559999999998E-3</v>
       </c>
-      <c r="E396" s="6">
+      <c r="D396" s="6">
         <v>0.57983550800000005</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>775</v>
       </c>
@@ -7242,16 +6051,13 @@
         <v>0.94094352999999997</v>
       </c>
       <c r="C397" s="7">
-        <v>8.2928899999999998E-4</v>
-      </c>
-      <c r="D397" s="7">
         <v>5.54698E-3</v>
       </c>
-      <c r="E397" s="6">
+      <c r="D397" s="6">
         <v>0.57799792400000005</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>776</v>
       </c>
@@ -7259,16 +6065,13 @@
         <v>0.94383199500000003</v>
       </c>
       <c r="C398" s="7">
-        <v>5.8250100000000003E-4</v>
-      </c>
-      <c r="D398" s="7">
         <v>4.323365E-3</v>
       </c>
-      <c r="E398" s="6">
+      <c r="D398" s="6">
         <v>0.576197603</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>777</v>
       </c>
@@ -7276,16 +6079,13 @@
         <v>0.94608924900000002</v>
       </c>
       <c r="C399" s="7">
-        <v>4.2937699999999999E-4</v>
-      </c>
-      <c r="D399" s="7">
         <v>3.8744259999999998E-3</v>
       </c>
-      <c r="E399" s="6">
+      <c r="D399" s="6">
         <v>0.57342820900000002</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>778</v>
       </c>
@@ -7293,16 +6093,13 @@
         <v>0.94952064700000005</v>
       </c>
       <c r="C400" s="7">
-        <v>3.4870099999999998E-4</v>
-      </c>
-      <c r="D400" s="7">
         <v>3.6833830000000001E-3</v>
       </c>
-      <c r="E400" s="6">
+      <c r="D400" s="6">
         <v>0.57133305499999998</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>779</v>
       </c>
@@ -7310,16 +6107,13 @@
         <v>0.95151184300000002</v>
       </c>
       <c r="C401" s="7">
-        <v>3.2896500000000002E-4</v>
-      </c>
-      <c r="D401" s="7">
         <v>3.589994E-3</v>
       </c>
-      <c r="E401" s="6">
+      <c r="D401" s="6">
         <v>0.56867222100000003</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>780</v>
       </c>
@@ -7327,12 +6121,9 @@
         <v>0.95495817500000002</v>
       </c>
       <c r="C402" s="7">
-        <v>2.9280400000000002E-4</v>
-      </c>
-      <c r="D402" s="7">
         <v>3.4688539999999999E-3</v>
       </c>
-      <c r="E402" s="6">
+      <c r="D402" s="6">
         <v>0.56709491199999995</v>
       </c>
     </row>
